--- a/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Amputación extremidades inferiores (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Amputación extremidades inferiores (UPTO).xlsx
@@ -590,67 +590,67 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7629709784411279</v>
+        <v>0.7525373134328355</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1700000000000001</v>
+        <v>0.1800000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>1.615999999999996</v>
+        <v>1.606666666666667</v>
       </c>
       <c r="J2" t="n">
-        <v>3.774881011608616</v>
+        <v>3.811873963515751</v>
       </c>
       <c r="K2" t="n">
-        <v>1.662723809523808</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>6.054650000000001</v>
+        <v>6.040000000000002</v>
       </c>
       <c r="M2" t="n">
-        <v>5.081164414437575</v>
+        <v>5.106102819237135</v>
       </c>
       <c r="N2" t="n">
-        <v>2.613086513486514</v>
+        <v>2.753333333333332</v>
       </c>
       <c r="O2" t="n">
-        <v>8.058475255953196</v>
+        <v>8.219999999999997</v>
       </c>
       <c r="P2" t="n">
-        <v>5.028878976302846</v>
+        <v>5.041525704809275</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.650135340868282</v>
+        <v>2.699999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>7.491327694527691</v>
+        <v>7.520000000000004</v>
       </c>
       <c r="S2" t="n">
-        <v>4.220986755256899</v>
+        <v>4.207827529021555</v>
       </c>
       <c r="T2" t="n">
-        <v>2.123106793206793</v>
+        <v>2.04</v>
       </c>
       <c r="U2" t="n">
-        <v>6.565457695520861</v>
+        <v>6.519999999999997</v>
       </c>
       <c r="V2" t="n">
-        <v>2.71884739881455</v>
+        <v>2.712139303482574</v>
       </c>
       <c r="W2" t="n">
-        <v>1.234990502245691</v>
+        <v>1.24</v>
       </c>
       <c r="X2" t="n">
-        <v>4.489283055783376</v>
+        <v>4.513333333333333</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.676306563439486</v>
+        <v>0.6640132669983408</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.00926474746235059</v>
+        <v>0.1333333333333334</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.478921420011577</v>
+        <v>1.419999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -682,58 +682,58 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.02245439469320065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4613788557213919</v>
+        <v>0.4634825870646753</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.102000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6380961857379763</v>
+        <v>0.6390049751243777</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.09709001246423002</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.425164835164837</v>
+        <v>1.426666666666666</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6975087525336274</v>
+        <v>0.6945605306799317</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0003619047619047619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.537979124579124</v>
+        <v>1.486666666666666</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5447716589104639</v>
+        <v>0.5471310116086223</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.299166050616052</v>
+        <v>1.233333333333333</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1586904634414146</v>
+        <v>0.1588059701492536</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.5960928571428581</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -768,55 +768,55 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001428571428571429</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6649452736318385</v>
+        <v>0.661326699834161</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1181666666666667</v>
+        <v>0.12</v>
       </c>
       <c r="O4" t="n">
-        <v>1.596333333333331</v>
+        <v>1.586666666666667</v>
       </c>
       <c r="P4" t="n">
-        <v>1.125960199004974</v>
+        <v>1.121658374792702</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2775356060606061</v>
+        <v>0.2466666666666668</v>
       </c>
       <c r="R4" t="n">
-        <v>2.571000000000002</v>
+        <v>2.413333333333334</v>
       </c>
       <c r="S4" t="n">
-        <v>1.321233830845773</v>
+        <v>1.306467661691542</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3866666666666659</v>
+        <v>0.3800000000000002</v>
       </c>
       <c r="U4" t="n">
-        <v>2.491627964627964</v>
+        <v>2.553333333333333</v>
       </c>
       <c r="V4" t="n">
-        <v>1.050171960709274</v>
+        <v>1.026202321724709</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1790143227143224</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>2.159966666666664</v>
+        <v>2.153333333333334</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2803177370722136</v>
+        <v>0.2845771144278596</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7679833333333328</v>
+        <v>0.8133333333333338</v>
       </c>
     </row>
     <row r="5">
@@ -848,58 +848,58 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.458241163949372</v>
+        <v>0.4454394693200652</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01962380952380952</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.344062870462871</v>
+        <v>1.346666666666666</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6886898616585171</v>
+        <v>0.6792703150912099</v>
       </c>
       <c r="N5" t="n">
-        <v>0.07533333333333338</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.566861327561327</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7848529753276016</v>
+        <v>0.7628524046434489</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1466580762534256</v>
+        <v>0.1800000000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>1.722818891756155</v>
+        <v>1.653333333333334</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7675630239386755</v>
+        <v>0.7640464344941941</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02744280904280905</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.716845556077909</v>
+        <v>1.673333333333334</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5634939757865119</v>
+        <v>0.547131011608623</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1.257417027417029</v>
+        <v>1.273333333333333</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.140005973875245</v>
+        <v>0.1403316749585406</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.002121323121323121</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.600000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
@@ -913,76 +913,76 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.0104477611940298</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>0.365406799336649</v>
+        <v>0.4331674958540622</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9681174603174604</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>1.63642105271732</v>
+        <v>1.635688225538971</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5528471139971143</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>3.011350000000001</v>
+        <v>3.013333333333333</v>
       </c>
       <c r="M6" t="n">
-        <v>2.227841767353691</v>
+        <v>2.232669983416236</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8080666666666666</v>
+        <v>0.8133333333333338</v>
       </c>
       <c r="O6" t="n">
-        <v>3.944028499278499</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="P6" t="n">
-        <v>2.455821038386701</v>
+        <v>2.464577114427854</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9357539337844668</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>4.268819169719166</v>
+        <v>4.240000000000002</v>
       </c>
       <c r="S6" t="n">
-        <v>2.306654856549371</v>
+        <v>2.319635157545591</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9715658489658489</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="U6" t="n">
-        <v>4.086965897065901</v>
+        <v>4.126666666666668</v>
       </c>
       <c r="V6" t="n">
-        <v>1.603295854063017</v>
+        <v>1.606898839137644</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5354572825866941</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>3.101173809523808</v>
+        <v>3.133333333333335</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4221440890784164</v>
+        <v>0.4289552238805959</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.001905441822617559</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.019151531062676</v>
+        <v>1.006666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -1014,58 +1014,58 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.75309286898839</v>
+        <v>0.7002985074626858</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02116666666666667</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="L7" t="n">
-        <v>1.670166666666665</v>
+        <v>1.573333333333334</v>
       </c>
       <c r="M7" t="n">
-        <v>3.767519900497501</v>
+        <v>3.662454394693185</v>
       </c>
       <c r="N7" t="n">
-        <v>1.713333333333333</v>
+        <v>1.693333333333334</v>
       </c>
       <c r="O7" t="n">
-        <v>6.438333333333335</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="P7" t="n">
-        <v>4.889759756771686</v>
+        <v>4.825638474295181</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.559191205918264</v>
+        <v>2.526666666666667</v>
       </c>
       <c r="R7" t="n">
-        <v>7.411530219780222</v>
+        <v>7.34</v>
       </c>
       <c r="S7" t="n">
-        <v>4.52652541261943</v>
+        <v>4.545671641791034</v>
       </c>
       <c r="T7" t="n">
-        <v>2.448148473748473</v>
+        <v>2.493333333333334</v>
       </c>
       <c r="U7" t="n">
-        <v>6.960401587301582</v>
+        <v>6.933333333333336</v>
       </c>
       <c r="V7" t="n">
-        <v>3.043602336800832</v>
+        <v>3.033963515754547</v>
       </c>
       <c r="W7" t="n">
-        <v>1.495459501288003</v>
+        <v>1.326666666666667</v>
       </c>
       <c r="X7" t="n">
-        <v>5.036930472013366</v>
+        <v>5</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.8029119426421901</v>
+        <v>0.7913764510779431</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1256933289571835</v>
+        <v>0.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.665983948191401</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="8">
@@ -1106,49 +1106,49 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>7.189243070362461</v>
+        <v>7.237048092868982</v>
       </c>
       <c r="N8" t="n">
-        <v>4.130666666666666</v>
+        <v>4.193333333333335</v>
       </c>
       <c r="O8" t="n">
-        <v>10.62866666666668</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="P8" t="n">
-        <v>9.021715730869451</v>
+        <v>9.125538971807609</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.249698665313964</v>
+        <v>5.840000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>12.56344285714285</v>
+        <v>12.74666666666667</v>
       </c>
       <c r="S8" t="n">
-        <v>6.8159012226027</v>
+        <v>6.861127694859026</v>
       </c>
       <c r="T8" t="n">
-        <v>4.215192111592112</v>
+        <v>4.200000000000001</v>
       </c>
       <c r="U8" t="n">
-        <v>9.604924771524777</v>
+        <v>9.846666666666666</v>
       </c>
       <c r="V8" t="n">
-        <v>3.934328128439763</v>
+        <v>3.905240464344934</v>
       </c>
       <c r="W8" t="n">
-        <v>1.998867006373284</v>
+        <v>2.033333333333333</v>
       </c>
       <c r="X8" t="n">
-        <v>5.939558930751573</v>
+        <v>5.94</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.8866736052780823</v>
+        <v>0.873466003316748</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1491911877268786</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.837198731945193</v>
+        <v>1.799999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1180,58 +1180,58 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.037183740803142</v>
+        <v>0.9855389718076266</v>
       </c>
       <c r="K9" t="n">
-        <v>0.213333333333333</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>2.179352380952381</v>
+        <v>2.08</v>
       </c>
       <c r="M9" t="n">
-        <v>1.929731698649605</v>
+        <v>1.91217247097844</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6060000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="O9" t="n">
-        <v>3.778626911976912</v>
+        <v>3.719999999999998</v>
       </c>
       <c r="P9" t="n">
-        <v>2.356058872305131</v>
+        <v>2.333266998341616</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8418157128378868</v>
+        <v>0.8533333333333336</v>
       </c>
       <c r="R9" t="n">
-        <v>4.241096225996221</v>
+        <v>4.213333333333336</v>
       </c>
       <c r="S9" t="n">
-        <v>2.337901406866565</v>
+        <v>2.349784411276929</v>
       </c>
       <c r="T9" t="n">
-        <v>0.9690507936507938</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="U9" t="n">
-        <v>4.261723088023085</v>
+        <v>4.346666666666668</v>
       </c>
       <c r="V9" t="n">
-        <v>1.629090902629708</v>
+        <v>1.624543946932007</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5825747429041542</v>
+        <v>0.6</v>
       </c>
       <c r="X9" t="n">
-        <v>3.003640476190477</v>
+        <v>3.013333333333334</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.4372886282871347</v>
+        <v>0.4449087893863996</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.002121323121323121</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.099214839245723</v>
+        <v>1.146666666666666</v>
       </c>
     </row>
     <row r="10">
@@ -1263,58 +1263,58 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.539604477611936</v>
+        <v>2.513134328358207</v>
       </c>
       <c r="K10" t="n">
-        <v>1.064333333333334</v>
+        <v>1.02</v>
       </c>
       <c r="L10" t="n">
-        <v>4.135066666666663</v>
+        <v>4.193333333333334</v>
       </c>
       <c r="M10" t="n">
-        <v>9.158505091812312</v>
+        <v>9.308490878938638</v>
       </c>
       <c r="N10" t="n">
-        <v>6.165521534021533</v>
+        <v>6.213333333333337</v>
       </c>
       <c r="O10" t="n">
-        <v>12.70829186993286</v>
+        <v>13</v>
       </c>
       <c r="P10" t="n">
-        <v>8.108723856188027</v>
+        <v>8.12245439469319</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.010596490112524</v>
+        <v>5.246666666666669</v>
       </c>
       <c r="R10" t="n">
-        <v>11.0951125137934</v>
+        <v>11.05333333333333</v>
       </c>
       <c r="S10" t="n">
-        <v>5.901884437551623</v>
+        <v>5.837379767827525</v>
       </c>
       <c r="T10" t="n">
-        <v>3.512786399831106</v>
+        <v>3.56</v>
       </c>
       <c r="U10" t="n">
-        <v>8.5967942231131</v>
+        <v>8.326666666666663</v>
       </c>
       <c r="V10" t="n">
-        <v>3.386000842388098</v>
+        <v>3.338938640132661</v>
       </c>
       <c r="W10" t="n">
-        <v>1.705298088570838</v>
+        <v>1.753333333333333</v>
       </c>
       <c r="X10" t="n">
-        <v>5.423437258790101</v>
+        <v>5.133333333333335</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7887697572977855</v>
+        <v>0.796716417910446</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.1148265262820317</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.67096301884974</v>
+        <v>1.606666666666668</v>
       </c>
     </row>
     <row r="11">
@@ -1337,67 +1337,67 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.065950248756219</v>
+        <v>1.153300165837478</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2066666666666666</v>
+        <v>0.2533333333333335</v>
       </c>
       <c r="I11" t="n">
-        <v>2.209333333333328</v>
+        <v>2.320000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>5.355369343757386</v>
+        <v>5.385572139303473</v>
       </c>
       <c r="K11" t="n">
-        <v>2.972966666666667</v>
+        <v>2.926666666666666</v>
       </c>
       <c r="L11" t="n">
-        <v>8.242433333333326</v>
+        <v>8.246666666666668</v>
       </c>
       <c r="M11" t="n">
-        <v>6.339866960361356</v>
+        <v>6.498275290215579</v>
       </c>
       <c r="N11" t="n">
-        <v>3.605921379428965</v>
+        <v>3.666666666666666</v>
       </c>
       <c r="O11" t="n">
-        <v>9.409346664446668</v>
+        <v>9.639999999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>5.964159203980091</v>
+        <v>5.937711442786061</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.530207565241775</v>
+        <v>3.373333333333335</v>
       </c>
       <c r="R11" t="n">
-        <v>9.091608441558433</v>
+        <v>8.846666666666666</v>
       </c>
       <c r="S11" t="n">
-        <v>4.71416150691025</v>
+        <v>4.705174129353225</v>
       </c>
       <c r="T11" t="n">
-        <v>2.659195686666273</v>
+        <v>2.686666666666666</v>
       </c>
       <c r="U11" t="n">
-        <v>6.816590489203496</v>
+        <v>6.806666666666666</v>
       </c>
       <c r="V11" t="n">
-        <v>2.766976498846637</v>
+        <v>2.81349917081259</v>
       </c>
       <c r="W11" t="n">
-        <v>1.233758756213945</v>
+        <v>1.293333333333333</v>
       </c>
       <c r="X11" t="n">
-        <v>4.505487962470894</v>
+        <v>4.573333333333331</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.6887156012864958</v>
+        <v>0.7168159203980087</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01571162801632497</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.484728594974347</v>
+        <v>1.593333333333334</v>
       </c>
     </row>
     <row r="12">
@@ -1411,76 +1411,76 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5084550580431169</v>
+        <v>0.5985737976782745</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>1.38</v>
+        <v>1.526666666666666</v>
       </c>
       <c r="G12" t="n">
-        <v>2.48822061122955</v>
+        <v>2.566533996683234</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9840000000000002</v>
+        <v>1.033333333333333</v>
       </c>
       <c r="I12" t="n">
-        <v>4.62600000000001</v>
+        <v>4.719999999999998</v>
       </c>
       <c r="J12" t="n">
-        <v>3.519068447086353</v>
+        <v>3.525041459369815</v>
       </c>
       <c r="K12" t="n">
-        <v>1.576919047619048</v>
+        <v>1.466666666666666</v>
       </c>
       <c r="L12" t="n">
-        <v>5.819779365079366</v>
+        <v>5.860000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>3.743688980422549</v>
+        <v>3.688524046434481</v>
       </c>
       <c r="N12" t="n">
-        <v>1.717339954489954</v>
+        <v>1.640000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>6.197642063492061</v>
+        <v>6.053333333333333</v>
       </c>
       <c r="P12" t="n">
-        <v>3.533589512753686</v>
+        <v>3.507562189054723</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.702819118136765</v>
+        <v>1.620000000000001</v>
       </c>
       <c r="R12" t="n">
-        <v>5.749494577644582</v>
+        <v>5.786666666666668</v>
       </c>
       <c r="S12" t="n">
-        <v>3.108344941956872</v>
+        <v>3.074328358208947</v>
       </c>
       <c r="T12" t="n">
-        <v>1.653672222222225</v>
+        <v>1.573333333333334</v>
       </c>
       <c r="U12" t="n">
-        <v>5.215600000000006</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="V12" t="n">
-        <v>2.001019900497512</v>
+        <v>1.951376451077944</v>
       </c>
       <c r="W12" t="n">
-        <v>0.6947778372699415</v>
+        <v>0.6066666666666667</v>
       </c>
       <c r="X12" t="n">
-        <v>3.543017216117215</v>
+        <v>3.400000000000002</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.4988343933291686</v>
+        <v>0.4738640132669983</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.246716554045657</v>
+        <v>1.186666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -1503,67 +1503,67 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>6.04468325041459</v>
+        <v>6.044610281923711</v>
       </c>
       <c r="H13" t="n">
-        <v>3.208000000000001</v>
+        <v>3.233333333333335</v>
       </c>
       <c r="I13" t="n">
-        <v>9.102196825396835</v>
+        <v>9.113333333333333</v>
       </c>
       <c r="J13" t="n">
-        <v>8.546478458181666</v>
+        <v>8.707694859038133</v>
       </c>
       <c r="K13" t="n">
-        <v>5.440907743856854</v>
+        <v>5.533333333333335</v>
       </c>
       <c r="L13" t="n">
-        <v>12.27668928782776</v>
+        <v>12.32666666666666</v>
       </c>
       <c r="M13" t="n">
-        <v>7.442116668461438</v>
+        <v>7.422752902155875</v>
       </c>
       <c r="N13" t="n">
-        <v>4.594773075290723</v>
+        <v>4.539999999999998</v>
       </c>
       <c r="O13" t="n">
-        <v>10.3503563963814</v>
+        <v>10.24</v>
       </c>
       <c r="P13" t="n">
-        <v>5.835176625627795</v>
+        <v>5.864676616915406</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.222362985817747</v>
+        <v>3.266666666666668</v>
       </c>
       <c r="R13" t="n">
-        <v>8.609585832141711</v>
+        <v>8.74666666666667</v>
       </c>
       <c r="S13" t="n">
-        <v>4.266551388032414</v>
+        <v>4.233897180762841</v>
       </c>
       <c r="T13" t="n">
-        <v>2.303037509816227</v>
+        <v>2.180000000000001</v>
       </c>
       <c r="U13" t="n">
-        <v>6.498874545267776</v>
+        <v>6.593333333333335</v>
       </c>
       <c r="V13" t="n">
-        <v>2.37098477059148</v>
+        <v>2.395854063018237</v>
       </c>
       <c r="W13" t="n">
-        <v>1.080003874465895</v>
+        <v>1.046666666666667</v>
       </c>
       <c r="X13" t="n">
-        <v>3.905544164822107</v>
+        <v>3.873333333333332</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.5469258588012306</v>
+        <v>0.5411276948590369</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.001897370115976357</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.316107236743483</v>
+        <v>1.353333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -1586,67 +1586,67 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.506475953565506</v>
+        <v>1.529253731343283</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4586666666666666</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>3.021333333333332</v>
+        <v>3.053333333333334</v>
       </c>
       <c r="J14" t="n">
-        <v>6.912003316749576</v>
+        <v>6.889618573797674</v>
       </c>
       <c r="K14" t="n">
-        <v>3.926070551378446</v>
+        <v>3.846666666666666</v>
       </c>
       <c r="L14" t="n">
-        <v>10.61822936838704</v>
+        <v>10.41333333333333</v>
       </c>
       <c r="M14" t="n">
-        <v>7.525137982691704</v>
+        <v>7.556716417910437</v>
       </c>
       <c r="N14" t="n">
-        <v>4.392981712731712</v>
+        <v>4.426666666666667</v>
       </c>
       <c r="O14" t="n">
-        <v>10.72588168857286</v>
+        <v>10.8</v>
       </c>
       <c r="P14" t="n">
-        <v>6.48878152383823</v>
+        <v>6.459900497512424</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.951107191460878</v>
+        <v>3.806666666666666</v>
       </c>
       <c r="R14" t="n">
-        <v>9.225070344198286</v>
+        <v>9.306666666666665</v>
       </c>
       <c r="S14" t="n">
-        <v>4.757997349841749</v>
+        <v>4.859867330016574</v>
       </c>
       <c r="T14" t="n">
-        <v>2.794241314023667</v>
+        <v>2.859999999999999</v>
       </c>
       <c r="U14" t="n">
-        <v>7.006991845371692</v>
+        <v>7.086666666666665</v>
       </c>
       <c r="V14" t="n">
-        <v>2.780784530118847</v>
+        <v>2.821691542288554</v>
       </c>
       <c r="W14" t="n">
-        <v>1.17317853002111</v>
+        <v>1.326666666666666</v>
       </c>
       <c r="X14" t="n">
-        <v>4.552927801013994</v>
+        <v>4.686666666666666</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.6716032639831139</v>
+        <v>0.6666998341625193</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.01571162801632497</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.461190691274656</v>
+        <v>1.413333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -1660,76 +1660,76 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.0209950248756218</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5100358643291469</v>
+        <v>0.4798341625207289</v>
       </c>
       <c r="H15" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.340022222222224</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6596164013984901</v>
+        <v>0.6626533996683239</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09949999999999998</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="L15" t="n">
-        <v>1.569505455655455</v>
+        <v>1.580000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7960731949918504</v>
+        <v>0.7829850746268647</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04262121212121212</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="O15" t="n">
-        <v>1.666556493506492</v>
+        <v>1.653333333333334</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7880928036584747</v>
+        <v>0.8290547263681584</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1633808929104528</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="R15" t="n">
-        <v>1.691383740116092</v>
+        <v>1.786666666666666</v>
       </c>
       <c r="S15" t="n">
-        <v>0.7470878718036168</v>
+        <v>0.7634494195688217</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1719230880230877</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="U15" t="n">
-        <v>1.643418562116703</v>
+        <v>1.640000000000001</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5161361531779427</v>
+        <v>0.5216915422885556</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1.284600000000002</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1183365225156269</v>
+        <v>0.150514096185738</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.4739999999999997</v>
+        <v>0.5933333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -1743,76 +1743,76 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.02305140961857373</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3653922056384732</v>
+        <v>0.492968490878938</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9703396825396826</v>
+        <v>1.2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.628169156354976</v>
+        <v>1.664776119402984</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5610709235209236</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="L16" t="n">
-        <v>3.044088095238096</v>
+        <v>3.053333333333333</v>
       </c>
       <c r="M16" t="n">
-        <v>2.226322032693659</v>
+        <v>2.238208955223865</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7803047619047619</v>
+        <v>0.7800000000000005</v>
       </c>
       <c r="O16" t="n">
-        <v>3.864432467532468</v>
+        <v>3.919999999999999</v>
       </c>
       <c r="P16" t="n">
-        <v>2.460557356794661</v>
+        <v>2.45565505804311</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9357337317642646</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="R16" t="n">
-        <v>4.355498962148962</v>
+        <v>4.266666666666668</v>
       </c>
       <c r="S16" t="n">
-        <v>2.292939410175219</v>
+        <v>2.301293532338294</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8372109668109661</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="U16" t="n">
-        <v>4.120929485329486</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="V16" t="n">
-        <v>1.594332669983415</v>
+        <v>1.591475953565505</v>
       </c>
       <c r="W16" t="n">
-        <v>0.5288604571898687</v>
+        <v>0.5466666666666665</v>
       </c>
       <c r="X16" t="n">
-        <v>3.036357142857141</v>
+        <v>3.086666666666667</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.4312409618573783</v>
+        <v>0.4287230514096173</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.00887406150702672</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.012021305732451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1826,76 +1826,76 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5121791044776106</v>
+        <v>0.5876285240464334</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="F17" t="n">
-        <v>1.276</v>
+        <v>1.366666666666667</v>
       </c>
       <c r="G17" t="n">
-        <v>2.432971073205389</v>
+        <v>2.529784411276933</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9986666666666667</v>
+        <v>1.026666666666667</v>
       </c>
       <c r="I17" t="n">
-        <v>4.60060000000001</v>
+        <v>4.686666666666665</v>
       </c>
       <c r="J17" t="n">
-        <v>3.479086689209073</v>
+        <v>3.514394693200662</v>
       </c>
       <c r="K17" t="n">
-        <v>1.619019047619049</v>
+        <v>1.679999999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>5.728455555555557</v>
+        <v>5.833333333333335</v>
       </c>
       <c r="M17" t="n">
-        <v>3.648468951418938</v>
+        <v>3.689784411276934</v>
       </c>
       <c r="N17" t="n">
-        <v>1.653831440781441</v>
+        <v>1.746666666666666</v>
       </c>
       <c r="O17" t="n">
-        <v>5.948994688644688</v>
+        <v>6.033333333333333</v>
       </c>
       <c r="P17" t="n">
-        <v>3.550972755271255</v>
+        <v>3.55044776119402</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.717102842599437</v>
+        <v>1.613333333333334</v>
       </c>
       <c r="R17" t="n">
-        <v>5.902671495171494</v>
+        <v>5.906666666666668</v>
       </c>
       <c r="S17" t="n">
-        <v>3.116406854615799</v>
+        <v>3.07880597014924</v>
       </c>
       <c r="T17" t="n">
-        <v>1.517337947995331</v>
+        <v>1.466666666666666</v>
       </c>
       <c r="U17" t="n">
-        <v>5.176344444444445</v>
+        <v>5.073333333333333</v>
       </c>
       <c r="V17" t="n">
-        <v>2.014117744610281</v>
+        <v>1.973830845771144</v>
       </c>
       <c r="W17" t="n">
-        <v>0.7138024132787281</v>
+        <v>0.6066666666666667</v>
       </c>
       <c r="X17" t="n">
-        <v>3.650933333333333</v>
+        <v>3.52</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.5129145086257018</v>
+        <v>0.4995356550580425</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.256122762749234</v>
+        <v>1.193333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -1930,55 +1930,55 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001428571428571429</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6649452736318385</v>
+        <v>0.661326699834161</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1181666666666667</v>
+        <v>0.12</v>
       </c>
       <c r="O18" t="n">
-        <v>1.600333333333331</v>
+        <v>1.586666666666667</v>
       </c>
       <c r="P18" t="n">
-        <v>1.122676616915422</v>
+        <v>1.121658374792702</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2802022727272728</v>
+        <v>0.2466666666666668</v>
       </c>
       <c r="R18" t="n">
-        <v>2.406000000000002</v>
+        <v>2.413333333333334</v>
       </c>
       <c r="S18" t="n">
-        <v>1.321379767827531</v>
+        <v>1.306467661691542</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3866666666666659</v>
+        <v>0.3800000000000002</v>
       </c>
       <c r="U18" t="n">
-        <v>2.546421615421617</v>
+        <v>2.553333333333333</v>
       </c>
       <c r="V18" t="n">
-        <v>1.023147595356551</v>
+        <v>1.026202321724709</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1790143227143224</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="X18" t="n">
-        <v>2.145299999999998</v>
+        <v>2.153333333333334</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.2826192845297315</v>
+        <v>0.2845771144278596</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.7760166666666657</v>
+        <v>0.8133333333333338</v>
       </c>
     </row>
     <row r="19">
@@ -1992,76 +1992,76 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.110281923714758</v>
+        <v>1.308126036484243</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1919999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="F19" t="n">
-        <v>2.417000000000002</v>
+        <v>2.713333333333333</v>
       </c>
       <c r="G19" t="n">
-        <v>5.334784411276946</v>
+        <v>5.403548922056379</v>
       </c>
       <c r="H19" t="n">
-        <v>2.867999999999999</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>8.465126984126986</v>
+        <v>8.520000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>6.44462634891365</v>
+        <v>6.392703150912089</v>
       </c>
       <c r="K19" t="n">
-        <v>3.425388461538459</v>
+        <v>3.773333333333333</v>
       </c>
       <c r="L19" t="n">
-        <v>9.512228121878127</v>
+        <v>9.58</v>
       </c>
       <c r="M19" t="n">
-        <v>6.056123761589424</v>
+        <v>6.00149253731342</v>
       </c>
       <c r="N19" t="n">
-        <v>3.354300615397675</v>
+        <v>3.446666666666667</v>
       </c>
       <c r="O19" t="n">
-        <v>8.7930252919595</v>
+        <v>8.746666666666663</v>
       </c>
       <c r="P19" t="n">
-        <v>5.12090592722571</v>
+        <v>5.040563847429505</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.851789378320338</v>
+        <v>2.759999999999999</v>
       </c>
       <c r="R19" t="n">
-        <v>7.843967155067158</v>
+        <v>7.586666666666667</v>
       </c>
       <c r="S19" t="n">
-        <v>3.904254756761954</v>
+        <v>3.92480928689883</v>
       </c>
       <c r="T19" t="n">
-        <v>1.902079701779705</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="U19" t="n">
-        <v>6.05661601482453</v>
+        <v>6.079999999999998</v>
       </c>
       <c r="V19" t="n">
-        <v>2.324369495249643</v>
+        <v>2.326368159203968</v>
       </c>
       <c r="W19" t="n">
-        <v>0.8924482395442944</v>
+        <v>0.9000000000000002</v>
       </c>
       <c r="X19" t="n">
-        <v>3.990693707390782</v>
+        <v>4.140000000000001</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.5307392638910852</v>
+        <v>0.5420895522388053</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.001452925671531912</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.209270619399212</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="20">
@@ -2075,76 +2075,76 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3479541656795376</v>
+        <v>0.3595688225538961</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="F20" t="n">
-        <v>1.004</v>
+        <v>1.033333333333333</v>
       </c>
       <c r="G20" t="n">
-        <v>1.569116789070519</v>
+        <v>1.545704809286899</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6221047619047622</v>
+        <v>0.5866666666666666</v>
       </c>
       <c r="I20" t="n">
-        <v>3.027885185185186</v>
+        <v>2.973333333333333</v>
       </c>
       <c r="J20" t="n">
-        <v>2.304887694477982</v>
+        <v>2.249121061359854</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8858906593406591</v>
+        <v>0.7266666666666668</v>
       </c>
       <c r="L20" t="n">
-        <v>4.049593548118549</v>
+        <v>3.946666666666666</v>
       </c>
       <c r="M20" t="n">
-        <v>2.510283652693345</v>
+        <v>2.484908789386389</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9110984126984127</v>
+        <v>0.846666666666667</v>
       </c>
       <c r="O20" t="n">
-        <v>4.482677461427462</v>
+        <v>4.380000000000002</v>
       </c>
       <c r="P20" t="n">
-        <v>2.501699479514395</v>
+        <v>2.409718076285227</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9019454691377331</v>
+        <v>0.806666666666667</v>
       </c>
       <c r="R20" t="n">
-        <v>4.480458852258855</v>
+        <v>4.380000000000002</v>
       </c>
       <c r="S20" t="n">
-        <v>2.221998853919245</v>
+        <v>2.189353233830837</v>
       </c>
       <c r="T20" t="n">
-        <v>0.9340523809523802</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="U20" t="n">
-        <v>3.949579894179894</v>
+        <v>3.779999999999999</v>
       </c>
       <c r="V20" t="n">
-        <v>1.473786733001657</v>
+        <v>1.481824212271973</v>
       </c>
       <c r="W20" t="n">
-        <v>0.4011178451178442</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="X20" t="n">
-        <v>2.6765</v>
+        <v>2.666666666666666</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.397673631840795</v>
+        <v>0.3783416252072957</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.021902118057382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2167,67 +2167,67 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7196639185027227</v>
+        <v>0.6664013266998328</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08610000000000002</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>1.657739682539681</v>
+        <v>1.566666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>1.125789439526752</v>
+        <v>1.10172470978441</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3063788600288596</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="L21" t="n">
-        <v>2.23932113997114</v>
+        <v>2.193333333333334</v>
       </c>
       <c r="M21" t="n">
-        <v>1.442734549474848</v>
+        <v>1.434262023217246</v>
       </c>
       <c r="N21" t="n">
-        <v>0.3611506493506493</v>
+        <v>0.2466666666666668</v>
       </c>
       <c r="O21" t="n">
-        <v>2.616547985347984</v>
+        <v>2.6</v>
       </c>
       <c r="P21" t="n">
-        <v>1.447581237391684</v>
+        <v>1.440464344941956</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.4028047112358662</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="R21" t="n">
-        <v>2.92519010989011</v>
+        <v>2.779999999999998</v>
       </c>
       <c r="S21" t="n">
-        <v>1.389168795107601</v>
+        <v>1.412968490878938</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3963333333333324</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="U21" t="n">
-        <v>2.750114285714288</v>
+        <v>2.799999999999998</v>
       </c>
       <c r="V21" t="n">
-        <v>0.9569078616995914</v>
+        <v>0.9375787728026518</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1997948717948713</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="X21" t="n">
-        <v>1.975085535577254</v>
+        <v>1.993333333333333</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2593697597178931</v>
+        <v>0.2700829187396348</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.8015445762153013</v>
+        <v>0.8000000000000004</v>
       </c>
     </row>
     <row r="22">
@@ -2259,58 +2259,58 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.281452736318391</v>
+        <v>7.251276948590375</v>
       </c>
       <c r="K22" t="n">
-        <v>4.047999999999998</v>
+        <v>4.053333333333334</v>
       </c>
       <c r="L22" t="n">
-        <v>10.7203</v>
+        <v>10.57333333333333</v>
       </c>
       <c r="M22" t="n">
-        <v>9.151155624861353</v>
+        <v>9.117545605306788</v>
       </c>
       <c r="N22" t="n">
-        <v>5.875611643911644</v>
+        <v>5.639999999999998</v>
       </c>
       <c r="O22" t="n">
-        <v>12.6337319973493</v>
+        <v>12.73333333333334</v>
       </c>
       <c r="P22" t="n">
-        <v>7.343741923306094</v>
+        <v>7.397943615257048</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.703593654039368</v>
+        <v>4.606666666666665</v>
       </c>
       <c r="R22" t="n">
-        <v>10.4677060608567</v>
+        <v>10.51333333333333</v>
       </c>
       <c r="S22" t="n">
-        <v>5.337989328418546</v>
+        <v>5.315621890547249</v>
       </c>
       <c r="T22" t="n">
-        <v>3.143492874117252</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="U22" t="n">
-        <v>7.849814045214042</v>
+        <v>7.673333333333332</v>
       </c>
       <c r="V22" t="n">
-        <v>2.96709101169697</v>
+        <v>2.977114427860685</v>
       </c>
       <c r="W22" t="n">
-        <v>1.534128568513438</v>
+        <v>1.56</v>
       </c>
       <c r="X22" t="n">
-        <v>4.774877777777783</v>
+        <v>4.793333333333333</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.7018189380920293</v>
+        <v>0.6918407960198992</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.07374833631443418</v>
+        <v>0.04</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.601523056147248</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="23">
@@ -2324,76 +2324,76 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1979531232725253</v>
+        <v>0.2611608623548911</v>
       </c>
       <c r="E23" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.8933333333333334</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5615893864013253</v>
+        <v>0.579668325041458</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.416442857142858</v>
+        <v>1.446666666666666</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7599064486370449</v>
+        <v>0.7561194029850741</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04669206349206351</v>
+        <v>0.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.70977352092352</v>
+        <v>1.693333333333334</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8189617891782057</v>
+        <v>0.8222222222222215</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1136212121212122</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="O23" t="n">
-        <v>1.769005555555556</v>
+        <v>1.7</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8102800809147597</v>
+        <v>0.8328026533996673</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1462767132075872</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="R23" t="n">
-        <v>1.797339795929383</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>0.748998278890156</v>
+        <v>0.7429187396351574</v>
       </c>
       <c r="T23" t="n">
-        <v>0.009289947089947091</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.766325131009344</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5401479161785516</v>
+        <v>0.5388059701492526</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.203130158730161</v>
+        <v>1.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.1418428004598466</v>
+        <v>0.1384079601990049</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.5980000000000009</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24">
@@ -2407,76 +2407,76 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.02242122719734653</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3664975124378099</v>
+        <v>0.4995024875621883</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02</v>
+        <v>0.05333333333333333</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9823396825396827</v>
+        <v>1.213333333333333</v>
       </c>
       <c r="J24" t="n">
-        <v>1.630169156354976</v>
+        <v>1.664577114427858</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5565756854256856</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="L24" t="n">
-        <v>3.054088095238096</v>
+        <v>3.06</v>
       </c>
       <c r="M24" t="n">
-        <v>2.229429353233814</v>
+        <v>2.247296849087878</v>
       </c>
       <c r="N24" t="n">
-        <v>0.7843047619047618</v>
+        <v>0.7933333333333337</v>
       </c>
       <c r="O24" t="n">
-        <v>3.867283261183261</v>
+        <v>3.933333333333332</v>
       </c>
       <c r="P24" t="n">
-        <v>2.434468349450429</v>
+        <v>2.460265339966826</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.9329837317642649</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="R24" t="n">
-        <v>4.306653724053721</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="S24" t="n">
-        <v>2.274746960207647</v>
+        <v>2.308092868988377</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8661845117845112</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="U24" t="n">
-        <v>3.871260846560852</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="V24" t="n">
-        <v>1.596282918739634</v>
+        <v>1.593300165837478</v>
       </c>
       <c r="W24" t="n">
-        <v>0.5221400599400597</v>
+        <v>0.5466666666666665</v>
       </c>
       <c r="X24" t="n">
-        <v>3.034357142857141</v>
+        <v>3.086666666666667</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.4048521677327629</v>
+        <v>0.4273963515754547</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.00887406150702672</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.9952330704383339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2508,58 +2508,58 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3168421069256876</v>
+        <v>0.3007628524046421</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8398942640692634</v>
+        <v>0.786666666666667</v>
       </c>
       <c r="M25" t="n">
-        <v>1.530860435915658</v>
+        <v>1.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.4210666666666665</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="O25" t="n">
-        <v>3.046166666666668</v>
+        <v>2.986666666666667</v>
       </c>
       <c r="P25" t="n">
-        <v>2.113870646766155</v>
+        <v>2.105704809286885</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.7846696755418493</v>
+        <v>0.8866666666666668</v>
       </c>
       <c r="R25" t="n">
-        <v>3.731818181818185</v>
+        <v>3.693333333333332</v>
       </c>
       <c r="S25" t="n">
-        <v>2.226991612883147</v>
+        <v>2.213499170812596</v>
       </c>
       <c r="T25" t="n">
-        <v>0.801999999999998</v>
+        <v>0.8000000000000004</v>
       </c>
       <c r="U25" t="n">
-        <v>4.043463924963924</v>
+        <v>3.96</v>
       </c>
       <c r="V25" t="n">
-        <v>1.644424235963041</v>
+        <v>1.623913764510778</v>
       </c>
       <c r="W25" t="n">
-        <v>0.5314113224466165</v>
+        <v>0.5466666666666665</v>
       </c>
       <c r="X25" t="n">
-        <v>3.081187229437228</v>
+        <v>3.02</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.4421519092847438</v>
+        <v>0.4287230514096174</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.124082532663416</v>
+        <v>1.046666666666666</v>
       </c>
     </row>
     <row r="26">
@@ -2573,76 +2573,76 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.007097844112769467</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7016478322672335</v>
+        <v>0.6459369817578758</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08003333333333336</v>
+        <v>0.04</v>
       </c>
       <c r="I26" t="n">
-        <v>1.560584126984127</v>
+        <v>1.433333333333333</v>
       </c>
       <c r="J26" t="n">
-        <v>1.117103820005311</v>
+        <v>1.125140961857379</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2070214285714283</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="L26" t="n">
-        <v>2.248611616161617</v>
+        <v>2.32</v>
       </c>
       <c r="M26" t="n">
-        <v>1.426905693753455</v>
+        <v>1.431077943615257</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4039999999999999</v>
+        <v>0.3866666666666668</v>
       </c>
       <c r="O26" t="n">
-        <v>2.691608302808303</v>
+        <v>2.739999999999999</v>
       </c>
       <c r="P26" t="n">
-        <v>1.469661639134773</v>
+        <v>1.47764510779436</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.4072809017120567</v>
+        <v>0.4200000000000002</v>
       </c>
       <c r="R26" t="n">
-        <v>2.803699705849708</v>
+        <v>2.773333333333332</v>
       </c>
       <c r="S26" t="n">
-        <v>1.40884490245336</v>
+        <v>1.408623548922056</v>
       </c>
       <c r="T26" t="n">
-        <v>0.3971666666666657</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="U26" t="n">
-        <v>2.668326809837339</v>
+        <v>2.659999999999999</v>
       </c>
       <c r="V26" t="n">
-        <v>0.9592265454989901</v>
+        <v>0.964145936981757</v>
       </c>
       <c r="W26" t="n">
-        <v>0.1997948717948713</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="X26" t="n">
-        <v>1.916083166747254</v>
+        <v>1.873333333333333</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.2564857352972671</v>
+        <v>0.2483250414593693</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.8136779095486346</v>
+        <v>0.8000000000000004</v>
       </c>
     </row>
     <row r="27">
@@ -2656,76 +2656,76 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>5.768212271973463</v>
+        <v>5.870082918739628</v>
       </c>
       <c r="E27" t="n">
-        <v>2.976000000000001</v>
+        <v>3.073333333333334</v>
       </c>
       <c r="F27" t="n">
-        <v>8.956000000000007</v>
+        <v>8.973333333333336</v>
       </c>
       <c r="G27" t="n">
-        <v>8.62930490405116</v>
+        <v>8.6269983416252</v>
       </c>
       <c r="H27" t="n">
-        <v>4.928000000000002</v>
+        <v>5.033333333333334</v>
       </c>
       <c r="I27" t="n">
-        <v>12.22137142857142</v>
+        <v>12.31333333333333</v>
       </c>
       <c r="J27" t="n">
-        <v>7.63944135706747</v>
+        <v>7.511475953565495</v>
       </c>
       <c r="K27" t="n">
-        <v>4.552929437229442</v>
+        <v>4.553333333333331</v>
       </c>
       <c r="L27" t="n">
-        <v>10.83420245310245</v>
+        <v>10.65333333333334</v>
       </c>
       <c r="M27" t="n">
-        <v>6.003629625681108</v>
+        <v>5.952271973465994</v>
       </c>
       <c r="N27" t="n">
-        <v>3.593009523809521</v>
+        <v>3.593333333333332</v>
       </c>
       <c r="O27" t="n">
-        <v>8.716193867243867</v>
+        <v>8.646666666666665</v>
       </c>
       <c r="P27" t="n">
-        <v>4.648498539050766</v>
+        <v>4.638805970149245</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.490049872349873</v>
+        <v>2.46</v>
       </c>
       <c r="R27" t="n">
-        <v>7.036892857142859</v>
+        <v>6.993333333333333</v>
       </c>
       <c r="S27" t="n">
-        <v>3.345507860170041</v>
+        <v>3.339999999999988</v>
       </c>
       <c r="T27" t="n">
-        <v>1.756192762149284</v>
+        <v>1.686666666666667</v>
       </c>
       <c r="U27" t="n">
-        <v>5.404120634920634</v>
+        <v>5.373333333333336</v>
       </c>
       <c r="V27" t="n">
-        <v>1.907236152570481</v>
+        <v>1.909883913764509</v>
       </c>
       <c r="W27" t="n">
-        <v>0.7286719817857887</v>
+        <v>0.7666666666666671</v>
       </c>
       <c r="X27" t="n">
-        <v>3.422013077743511</v>
+        <v>3.360000000000001</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.4282261944247011</v>
+        <v>0.4314759535655048</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.001897370115976357</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.136946782338675</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="28">
@@ -2748,67 +2748,67 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.02351575456053067</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="J28" t="n">
-        <v>2.40436567164178</v>
+        <v>2.420762852404633</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8234047619047606</v>
+        <v>0.8466666666666671</v>
       </c>
       <c r="L28" t="n">
-        <v>4.332000000000001</v>
+        <v>4.22</v>
       </c>
       <c r="M28" t="n">
-        <v>4.657165992382397</v>
+        <v>4.625439469320056</v>
       </c>
       <c r="N28" t="n">
-        <v>2.292180952380954</v>
+        <v>2.220000000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>7.192456204906206</v>
+        <v>7.140000000000001</v>
       </c>
       <c r="P28" t="n">
-        <v>5.008001948742237</v>
+        <v>5.007263681592026</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.64876164789459</v>
+        <v>2.746666666666665</v>
       </c>
       <c r="R28" t="n">
-        <v>7.569862171162173</v>
+        <v>7.55333333333333</v>
       </c>
       <c r="S28" t="n">
-        <v>4.403086309194763</v>
+        <v>4.375024875621888</v>
       </c>
       <c r="T28" t="n">
-        <v>2.440150183150181</v>
+        <v>2.426666666666667</v>
       </c>
       <c r="U28" t="n">
-        <v>6.702084126984133</v>
+        <v>6.659999999999997</v>
       </c>
       <c r="V28" t="n">
-        <v>2.908493200663344</v>
+        <v>2.883217247097839</v>
       </c>
       <c r="W28" t="n">
-        <v>1.416572971444064</v>
+        <v>1.393333333333332</v>
       </c>
       <c r="X28" t="n">
-        <v>4.604900000000004</v>
+        <v>4.579999999999998</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.736149821392711</v>
+        <v>0.7342620232172464</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.08416594418267957</v>
+        <v>0.04666666666666666</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.58963393431738</v>
+        <v>1.620000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -2822,76 +2822,76 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4839899391929235</v>
+        <v>0.4318739635157532</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.307166666666667</v>
+        <v>1.173333333333333</v>
       </c>
       <c r="G29" t="n">
-        <v>0.64894991708126</v>
+        <v>0.6467993366500824</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.550757142857142</v>
+        <v>1.560000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>0.779105587143646</v>
+        <v>0.8038474295190701</v>
       </c>
       <c r="K29" t="n">
-        <v>0.07504444444444446</v>
+        <v>0.04</v>
       </c>
       <c r="L29" t="n">
-        <v>1.732392063492063</v>
+        <v>1.76</v>
       </c>
       <c r="M29" t="n">
-        <v>0.853881568348731</v>
+        <v>0.8717412935323375</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1823333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O29" t="n">
-        <v>1.748759523809524</v>
+        <v>1.766666666666666</v>
       </c>
       <c r="P29" t="n">
-        <v>0.8320889097862749</v>
+        <v>0.833731343283581</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1648253373548973</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>1.785329992007814</v>
+        <v>1.793333333333333</v>
       </c>
       <c r="S29" t="n">
-        <v>0.7563350362444874</v>
+        <v>0.7619568822553892</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01108994708994709</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="U29" t="n">
-        <v>1.775530951115165</v>
+        <v>1.793333333333333</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5369066257939779</v>
+        <v>0.5378109452736309</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.231130158730161</v>
+        <v>1.32</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.1378978357187311</v>
+        <v>0.1397678275290214</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.5940000000000009</v>
+        <v>0.5933333333333333</v>
       </c>
     </row>
     <row r="30">
@@ -2914,67 +2914,67 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.582643259891022</v>
+        <v>1.546368159203979</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5912857142857146</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>2.944984126984129</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>3.132073371956944</v>
+        <v>3.082786069651728</v>
       </c>
       <c r="K30" t="n">
-        <v>1.427390476190478</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="L30" t="n">
-        <v>5.390655555555549</v>
+        <v>5.373333333333336</v>
       </c>
       <c r="M30" t="n">
-        <v>3.633200643386451</v>
+        <v>3.640099502487549</v>
       </c>
       <c r="N30" t="n">
-        <v>1.615741397491398</v>
+        <v>1.493333333333333</v>
       </c>
       <c r="O30" t="n">
-        <v>5.963594688644687</v>
+        <v>5.966666666666669</v>
       </c>
       <c r="P30" t="n">
-        <v>3.646967225421073</v>
+        <v>3.62182421227196</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.781149262845857</v>
+        <v>1.806666666666666</v>
       </c>
       <c r="R30" t="n">
-        <v>5.952924486624486</v>
+        <v>5.866666666666669</v>
       </c>
       <c r="S30" t="n">
-        <v>3.230349806522936</v>
+        <v>3.263913764510773</v>
       </c>
       <c r="T30" t="n">
-        <v>1.61015807913125</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="U30" t="n">
-        <v>5.371028571428582</v>
+        <v>5.486666666666665</v>
       </c>
       <c r="V30" t="n">
-        <v>2.099606965174111</v>
+        <v>2.104013266998323</v>
       </c>
       <c r="W30" t="n">
-        <v>0.8134368779368777</v>
+        <v>0.8800000000000002</v>
       </c>
       <c r="X30" t="n">
-        <v>3.695166666666665</v>
+        <v>3.526666666666668</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.5678579456678436</v>
+        <v>0.5669983416252067</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.36070876797502</v>
+        <v>1.379999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3006,58 +3006,58 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.799011608623554</v>
+        <v>4.803416252072964</v>
       </c>
       <c r="K31" t="n">
-        <v>2.499999999999998</v>
+        <v>2.486666666666667</v>
       </c>
       <c r="L31" t="n">
-        <v>7.570914285714283</v>
+        <v>7.539999999999997</v>
       </c>
       <c r="M31" t="n">
-        <v>7.540163971793812</v>
+        <v>7.613067993366497</v>
       </c>
       <c r="N31" t="n">
-        <v>4.506300915750914</v>
+        <v>4.646666666666665</v>
       </c>
       <c r="O31" t="n">
-        <v>10.75262871931989</v>
+        <v>10.76</v>
       </c>
       <c r="P31" t="n">
-        <v>7.024412784562029</v>
+        <v>6.978673300165829</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.454555003885407</v>
+        <v>4.073333333333334</v>
       </c>
       <c r="R31" t="n">
-        <v>10.09843968253968</v>
+        <v>9.913333333333336</v>
       </c>
       <c r="S31" t="n">
-        <v>5.410306674864794</v>
+        <v>5.576849087893853</v>
       </c>
       <c r="T31" t="n">
-        <v>3.043374592464065</v>
+        <v>3.166666666666668</v>
       </c>
       <c r="U31" t="n">
-        <v>8.003366362864194</v>
+        <v>8.046666666666669</v>
       </c>
       <c r="V31" t="n">
-        <v>3.161964338933819</v>
+        <v>3.253598673300151</v>
       </c>
       <c r="W31" t="n">
-        <v>1.563693557728467</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="X31" t="n">
-        <v>5.020769103835621</v>
+        <v>4.993333333333333</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.7359108973588734</v>
+        <v>0.7566832504145927</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.1123289817416857</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.594531736897392</v>
+        <v>1.560000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3089,58 +3089,58 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.987144278606965</v>
+        <v>2.013864013266998</v>
       </c>
       <c r="K32" t="n">
-        <v>0.7799999999999987</v>
+        <v>0.7866666666666671</v>
       </c>
       <c r="L32" t="n">
-        <v>3.875999999999995</v>
+        <v>3.540000000000001</v>
       </c>
       <c r="M32" t="n">
-        <v>8.524142722968479</v>
+        <v>8.248822553897172</v>
       </c>
       <c r="N32" t="n">
-        <v>5.184863074455644</v>
+        <v>4.953333333333334</v>
       </c>
       <c r="O32" t="n">
-        <v>11.95669872133739</v>
+        <v>11.88666666666667</v>
       </c>
       <c r="P32" t="n">
-        <v>7.93828715154386</v>
+        <v>7.865936981757867</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.984190533999673</v>
+        <v>4.860000000000001</v>
       </c>
       <c r="R32" t="n">
-        <v>10.93388444741533</v>
+        <v>10.88</v>
       </c>
       <c r="S32" t="n">
-        <v>5.908261955997799</v>
+        <v>5.947495854063011</v>
       </c>
       <c r="T32" t="n">
-        <v>3.508972273216979</v>
+        <v>3.626666666666666</v>
       </c>
       <c r="U32" t="n">
-        <v>9.074097306397306</v>
+        <v>8.806666666666667</v>
       </c>
       <c r="V32" t="n">
-        <v>3.482594900294772</v>
+        <v>3.434162520729678</v>
       </c>
       <c r="W32" t="n">
-        <v>1.708685745452506</v>
+        <v>1.679999999999999</v>
       </c>
       <c r="X32" t="n">
-        <v>5.626817123335601</v>
+        <v>5.566666666666668</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.8009504151873547</v>
+        <v>0.7907462686567155</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.1131115943758313</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.67096301884974</v>
+        <v>1.633333333333334</v>
       </c>
     </row>
     <row r="33">
@@ -3163,67 +3163,67 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.529759535655058</v>
+        <v>1.540895522388059</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4960000000000002</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I33" t="n">
-        <v>3.090666666666662</v>
+        <v>3.086666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>7.024104145936973</v>
+        <v>6.945306799336641</v>
       </c>
       <c r="K33" t="n">
-        <v>4.067199122807014</v>
+        <v>3.926666666666667</v>
       </c>
       <c r="L33" t="n">
-        <v>10.6373960350537</v>
+        <v>10.50666666666667</v>
       </c>
       <c r="M33" t="n">
-        <v>7.524367833437973</v>
+        <v>7.538872305140952</v>
       </c>
       <c r="N33" t="n">
-        <v>4.405753141303141</v>
+        <v>4.44</v>
       </c>
       <c r="O33" t="n">
-        <v>10.74080476549594</v>
+        <v>10.85333333333334</v>
       </c>
       <c r="P33" t="n">
-        <v>6.561633911969725</v>
+        <v>6.513067993366486</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.945773858127544</v>
+        <v>3.853333333333333</v>
       </c>
       <c r="R33" t="n">
-        <v>9.414498049825996</v>
+        <v>9.393333333333333</v>
       </c>
       <c r="S33" t="n">
-        <v>4.712794637553331</v>
+        <v>4.835721393034817</v>
       </c>
       <c r="T33" t="n">
-        <v>2.768219972402325</v>
+        <v>2.886666666666666</v>
       </c>
       <c r="U33" t="n">
-        <v>6.818979411509258</v>
+        <v>7.033333333333333</v>
       </c>
       <c r="V33" t="n">
-        <v>2.764227150351021</v>
+        <v>2.788258706467658</v>
       </c>
       <c r="W33" t="n">
-        <v>1.17317853002111</v>
+        <v>1.3</v>
       </c>
       <c r="X33" t="n">
-        <v>4.50510242916362</v>
+        <v>4.653333333333332</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.6666665859016595</v>
+        <v>0.6656053067993353</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.01571162801632497</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.461625080414928</v>
+        <v>1.406666666666666</v>
       </c>
     </row>
     <row r="34">
@@ -3237,76 +3237,76 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2.36409950248755</v>
+        <v>2.3898839137645</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7440000000000001</v>
+        <v>0.8466666666666671</v>
       </c>
       <c r="F34" t="n">
-        <v>3.829066666666668</v>
+        <v>4.093333333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>4.547442786069645</v>
+        <v>4.720398009950238</v>
       </c>
       <c r="H34" t="n">
-        <v>2.192</v>
+        <v>2.3</v>
       </c>
       <c r="I34" t="n">
-        <v>7.333333333333344</v>
+        <v>7.606666666666666</v>
       </c>
       <c r="J34" t="n">
-        <v>5.081566227194573</v>
+        <v>5.260232172470968</v>
       </c>
       <c r="K34" t="n">
-        <v>2.733540476190478</v>
+        <v>2.786666666666666</v>
       </c>
       <c r="L34" t="n">
-        <v>7.930687040737036</v>
+        <v>8.040000000000001</v>
       </c>
       <c r="M34" t="n">
-        <v>5.041976514397203</v>
+        <v>5.015024875621887</v>
       </c>
       <c r="N34" t="n">
-        <v>2.690750715950715</v>
+        <v>2.726666666666666</v>
       </c>
       <c r="O34" t="n">
-        <v>7.469409119492479</v>
+        <v>7.453333333333332</v>
       </c>
       <c r="P34" t="n">
-        <v>4.309429519071304</v>
+        <v>4.325406301824207</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.438873437020496</v>
+        <v>2.36</v>
       </c>
       <c r="R34" t="n">
-        <v>7.018214285714286</v>
+        <v>6.946666666666667</v>
       </c>
       <c r="S34" t="n">
-        <v>3.568663869040475</v>
+        <v>3.501160862354877</v>
       </c>
       <c r="T34" t="n">
-        <v>1.77804166944167</v>
+        <v>1.693333333333334</v>
       </c>
       <c r="U34" t="n">
-        <v>5.622732548932556</v>
+        <v>5.606666666666664</v>
       </c>
       <c r="V34" t="n">
-        <v>2.108307212135557</v>
+        <v>2.116384742951893</v>
       </c>
       <c r="W34" t="n">
-        <v>0.8108834358973906</v>
+        <v>0.806666666666667</v>
       </c>
       <c r="X34" t="n">
-        <v>3.685653856409291</v>
+        <v>3.826666666666665</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.4842526848220869</v>
+        <v>0.4920729684908778</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.001452925671531912</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.206434346266132</v>
+        <v>1.206666666666667</v>
       </c>
     </row>
     <row r="35">
@@ -3320,76 +3320,76 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.02242122719734653</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G35" t="n">
-        <v>1.07950828397694</v>
+        <v>1.069452736318407</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2368</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>2.219490476190474</v>
+        <v>2.206666666666667</v>
       </c>
       <c r="J35" t="n">
-        <v>1.936559701796269</v>
+        <v>1.967495854063016</v>
       </c>
       <c r="K35" t="n">
-        <v>0.6640338050838054</v>
+        <v>0.6533333333333334</v>
       </c>
       <c r="L35" t="n">
-        <v>3.551172191697191</v>
+        <v>3.56</v>
       </c>
       <c r="M35" t="n">
-        <v>2.408325587679307</v>
+        <v>2.412404643449409</v>
       </c>
       <c r="N35" t="n">
-        <v>0.8413650793650791</v>
+        <v>0.8533333333333336</v>
       </c>
       <c r="O35" t="n">
-        <v>4.403735397935394</v>
+        <v>4.393333333333335</v>
       </c>
       <c r="P35" t="n">
-        <v>2.437419095719085</v>
+        <v>2.462487562189048</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.9304574159747909</v>
+        <v>0.9733333333333334</v>
       </c>
       <c r="R35" t="n">
-        <v>4.348744566544565</v>
+        <v>4.326666666666667</v>
       </c>
       <c r="S35" t="n">
-        <v>2.228019938012963</v>
+        <v>2.250878938640119</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7982497354497342</v>
+        <v>0.7733333333333337</v>
       </c>
       <c r="U35" t="n">
-        <v>3.758844444444449</v>
+        <v>3.766666666666665</v>
       </c>
       <c r="V35" t="n">
-        <v>1.49939966832504</v>
+        <v>1.51290215588723</v>
       </c>
       <c r="W35" t="n">
-        <v>0.411050223850223</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="X35" t="n">
-        <v>2.763500000000002</v>
+        <v>2.806666666666665</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4015157545605288</v>
+        <v>0.4115091210613585</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.9932330704383339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -3421,58 +3421,58 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7479983416252063</v>
+        <v>0.6896849087893859</v>
       </c>
       <c r="K36" t="n">
-        <v>0.02783333333333333</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="L36" t="n">
-        <v>1.740666666666667</v>
+        <v>1.64</v>
       </c>
       <c r="M36" t="n">
-        <v>3.749861691542275</v>
+        <v>3.654825870646752</v>
       </c>
       <c r="N36" t="n">
-        <v>1.854666666666666</v>
+        <v>1.84</v>
       </c>
       <c r="O36" t="n">
-        <v>6.470333333333333</v>
+        <v>6.246666666666668</v>
       </c>
       <c r="P36" t="n">
-        <v>4.879762078496396</v>
+        <v>4.814825870646756</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.559191205918264</v>
+        <v>2.446666666666666</v>
       </c>
       <c r="R36" t="n">
-        <v>7.413857997557998</v>
+        <v>7.433333333333334</v>
       </c>
       <c r="S36" t="n">
-        <v>4.495405061991621</v>
+        <v>4.517346600331666</v>
       </c>
       <c r="T36" t="n">
-        <v>2.470738217338216</v>
+        <v>2.426666666666667</v>
       </c>
       <c r="U36" t="n">
-        <v>6.942849206349202</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="V36" t="n">
-        <v>3.045066832504135</v>
+        <v>3.062487562189046</v>
       </c>
       <c r="W36" t="n">
-        <v>1.496471141499643</v>
+        <v>1.406666666666666</v>
       </c>
       <c r="X36" t="n">
-        <v>5.037973015873014</v>
+        <v>5.026666666666667</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.8237022833164618</v>
+        <v>0.7940298507462681</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.1288965547636351</v>
+        <v>0.1533333333333334</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.665983948191401</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="37">
@@ -3486,76 +3486,76 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2259284687672742</v>
+        <v>0.3308789386401323</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.9866666666666671</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9367175669272679</v>
+        <v>0.9690215588723045</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2142683982683982</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>1.933473015873017</v>
+        <v>1.919999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>1.277368049363571</v>
+        <v>1.297479270315091</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3589026695526693</v>
+        <v>0.3800000000000002</v>
       </c>
       <c r="L37" t="n">
-        <v>2.404583116883118</v>
+        <v>2.553333333333334</v>
       </c>
       <c r="M37" t="n">
-        <v>1.531030198215271</v>
+        <v>1.517943615257047</v>
       </c>
       <c r="N37" t="n">
-        <v>0.3895506493506495</v>
+        <v>0.4066666666666668</v>
       </c>
       <c r="O37" t="n">
-        <v>2.920542857142858</v>
+        <v>2.853333333333332</v>
       </c>
       <c r="P37" t="n">
-        <v>1.484983582807462</v>
+        <v>1.472238805970148</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4070269334580885</v>
+        <v>0.4066666666666668</v>
       </c>
       <c r="R37" t="n">
-        <v>2.917816666666668</v>
+        <v>2.919999999999999</v>
       </c>
       <c r="S37" t="n">
-        <v>1.389290940660592</v>
+        <v>1.356650082918738</v>
       </c>
       <c r="T37" t="n">
-        <v>0.399999999999999</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="U37" t="n">
-        <v>2.632384640895167</v>
+        <v>2.506666666666666</v>
       </c>
       <c r="V37" t="n">
-        <v>0.9446508437589912</v>
+        <v>0.9483582089552228</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1835726495726492</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="X37" t="n">
-        <v>1.99575220224392</v>
+        <v>2</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.2488322198531142</v>
+        <v>0.2466334991708115</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.8015445762153013</v>
+        <v>0.8000000000000005</v>
       </c>
     </row>
     <row r="38">
@@ -3569,76 +3569,76 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.524443891652846</v>
+        <v>1.522587064676616</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5840000000000003</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>2.811999999999999</v>
+        <v>2.839999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>6.947178275290208</v>
+        <v>6.926169154228845</v>
       </c>
       <c r="H38" t="n">
-        <v>4.1328</v>
+        <v>4.133333333333335</v>
       </c>
       <c r="I38" t="n">
-        <v>10.23151111111109</v>
+        <v>10</v>
       </c>
       <c r="J38" t="n">
-        <v>7.564551182926746</v>
+        <v>7.553001658374774</v>
       </c>
       <c r="K38" t="n">
-        <v>4.683112914862916</v>
+        <v>4.613333333333332</v>
       </c>
       <c r="L38" t="n">
-        <v>11.07536211341978</v>
+        <v>11.15999999999999</v>
       </c>
       <c r="M38" t="n">
-        <v>6.553005894768567</v>
+        <v>6.410447761194024</v>
       </c>
       <c r="N38" t="n">
-        <v>4.093845726495726</v>
+        <v>3.993333333333333</v>
       </c>
       <c r="O38" t="n">
-        <v>9.785508630258626</v>
+        <v>9.226666666666663</v>
       </c>
       <c r="P38" t="n">
-        <v>5.232321348358648</v>
+        <v>5.22444444444443</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.926387005083578</v>
+        <v>3.013333333333334</v>
       </c>
       <c r="R38" t="n">
-        <v>7.684276071151069</v>
+        <v>7.486666666666669</v>
       </c>
       <c r="S38" t="n">
-        <v>3.918142876307786</v>
+        <v>3.985737976782736</v>
       </c>
       <c r="T38" t="n">
-        <v>2.069826406282926</v>
+        <v>2.173333333333334</v>
       </c>
       <c r="U38" t="n">
-        <v>6.100878633910526</v>
+        <v>6.066666666666666</v>
       </c>
       <c r="V38" t="n">
-        <v>2.269389153534973</v>
+        <v>2.230348258706452</v>
       </c>
       <c r="W38" t="n">
-        <v>0.8889220961972891</v>
+        <v>0.8333333333333337</v>
       </c>
       <c r="X38" t="n">
-        <v>3.833711390406981</v>
+        <v>3.799999999999998</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.5077114967715263</v>
+        <v>0.486036484245438</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.001452925671531912</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>1.2089229440068</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="39">
@@ -3652,76 +3652,76 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1.53345273631841</v>
+        <v>1.49323383084577</v>
       </c>
       <c r="E39" t="n">
-        <v>0.392</v>
+        <v>0.3600000000000002</v>
       </c>
       <c r="F39" t="n">
-        <v>2.799999999999999</v>
+        <v>2.659999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>3.131621890547249</v>
+        <v>3.161094527363169</v>
       </c>
       <c r="H39" t="n">
-        <v>1.264000000000001</v>
+        <v>1.286666666666667</v>
       </c>
       <c r="I39" t="n">
-        <v>5.612333333333346</v>
+        <v>5.659999999999997</v>
       </c>
       <c r="J39" t="n">
-        <v>3.730116705792818</v>
+        <v>3.835588723051401</v>
       </c>
       <c r="K39" t="n">
-        <v>1.733904761904763</v>
+        <v>1.759999999999999</v>
       </c>
       <c r="L39" t="n">
-        <v>6.251117460317464</v>
+        <v>6.359999999999999</v>
       </c>
       <c r="M39" t="n">
-        <v>3.802189876734644</v>
+        <v>3.814527363184075</v>
       </c>
       <c r="N39" t="n">
-        <v>1.846133333333333</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="O39" t="n">
-        <v>6.416834920634924</v>
+        <v>6.486666666666665</v>
       </c>
       <c r="P39" t="n">
-        <v>3.557320856037265</v>
+        <v>3.556053067993358</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.739352451470098</v>
+        <v>1.779999999999999</v>
       </c>
       <c r="R39" t="n">
-        <v>5.596365079365083</v>
+        <v>5.566666666666665</v>
       </c>
       <c r="S39" t="n">
-        <v>3.067263681592028</v>
+        <v>3.044875621890543</v>
       </c>
       <c r="T39" t="n">
-        <v>1.616988888888891</v>
+        <v>1.473333333333333</v>
       </c>
       <c r="U39" t="n">
-        <v>5.40612910052911</v>
+        <v>5.346666666666664</v>
       </c>
       <c r="V39" t="n">
-        <v>1.883436152570481</v>
+        <v>1.883781094527363</v>
       </c>
       <c r="W39" t="n">
-        <v>0.705336360146536</v>
+        <v>0.6533333333333335</v>
       </c>
       <c r="X39" t="n">
-        <v>3.456974358974358</v>
+        <v>3.273333333333335</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.4833647886110559</v>
+        <v>0.4646434494195682</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.154096566396567</v>
+        <v>1.073333333333333</v>
       </c>
     </row>
     <row r="40">
@@ -3753,58 +3753,58 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6548484482350149</v>
+        <v>0.6068325041459366</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01334126984126984</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.651428066378067</v>
+        <v>1.413333333333333</v>
       </c>
       <c r="M40" t="n">
-        <v>1.157569391139539</v>
+        <v>1.13658374792703</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1539601731601733</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="O40" t="n">
-        <v>2.486643073593074</v>
+        <v>2.4</v>
       </c>
       <c r="P40" t="n">
-        <v>1.326606301824211</v>
+        <v>1.311907131011607</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4072809017120567</v>
+        <v>0.3866666666666668</v>
       </c>
       <c r="R40" t="n">
-        <v>2.791192929292933</v>
+        <v>2.753333333333332</v>
       </c>
       <c r="S40" t="n">
-        <v>1.400772445041599</v>
+        <v>1.401558872305139</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3982222222222213</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="U40" t="n">
-        <v>2.656625895936425</v>
+        <v>2.713333333333332</v>
       </c>
       <c r="V40" t="n">
-        <v>0.9831274013043239</v>
+        <v>0.9856053067993368</v>
       </c>
       <c r="W40" t="n">
-        <v>0.1997948717948713</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="X40" t="n">
-        <v>2.021177570382833</v>
+        <v>2.126666666666667</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.2773731991324917</v>
+        <v>0.2870646766169138</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.002121323121323121</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.8156779095486347</v>
+        <v>0.8000000000000004</v>
       </c>
     </row>
     <row r="41">
@@ -3836,58 +3836,58 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.04636815920398</v>
       </c>
       <c r="K41" t="n">
-        <v>0.05000000000000002</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="M41" t="n">
-        <v>2.384995024875615</v>
+        <v>2.44126036484245</v>
       </c>
       <c r="N41" t="n">
-        <v>0.8567999999999998</v>
+        <v>0.9200000000000004</v>
       </c>
       <c r="O41" t="n">
-        <v>4.18533333333333</v>
+        <v>4.286666666666667</v>
       </c>
       <c r="P41" t="n">
-        <v>4.470078275290207</v>
+        <v>4.528258706467653</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.203275468975468</v>
+        <v>2.213333333333333</v>
       </c>
       <c r="R41" t="n">
-        <v>7.186266666666663</v>
+        <v>7.22666666666667</v>
       </c>
       <c r="S41" t="n">
-        <v>4.658111577035448</v>
+        <v>4.721990049751231</v>
       </c>
       <c r="T41" t="n">
-        <v>2.369321367521365</v>
+        <v>2.513333333333334</v>
       </c>
       <c r="U41" t="n">
-        <v>7.038022222222225</v>
+        <v>7.119999999999999</v>
       </c>
       <c r="V41" t="n">
-        <v>3.25425207296848</v>
+        <v>3.263482587064664</v>
       </c>
       <c r="W41" t="n">
-        <v>1.579503931580402</v>
+        <v>1.606666666666668</v>
       </c>
       <c r="X41" t="n">
-        <v>5.191930952380948</v>
+        <v>5.266666666666667</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.8776766664512918</v>
+        <v>0.8697180762852398</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.1608913237353637</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="AA41" t="n">
-        <v>1.790124321121767</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="42">
@@ -3910,67 +3910,67 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>3.51626616915422</v>
+        <v>3.44394693200662</v>
       </c>
       <c r="H42" t="n">
-        <v>1.673638095238095</v>
+        <v>1.673333333333333</v>
       </c>
       <c r="I42" t="n">
-        <v>5.879086772486763</v>
+        <v>5.806666666666668</v>
       </c>
       <c r="J42" t="n">
-        <v>6.285910143725801</v>
+        <v>6.207728026533982</v>
       </c>
       <c r="K42" t="n">
-        <v>3.641254362304363</v>
+        <v>3.473333333333334</v>
       </c>
       <c r="L42" t="n">
-        <v>9.43563165723166</v>
+        <v>9.226666666666663</v>
       </c>
       <c r="M42" t="n">
-        <v>6.334846687185113</v>
+        <v>6.370945273631835</v>
       </c>
       <c r="N42" t="n">
-        <v>3.693280641735287</v>
+        <v>3.913333333333333</v>
       </c>
       <c r="O42" t="n">
-        <v>9.167970102704317</v>
+        <v>9.346666666666666</v>
       </c>
       <c r="P42" t="n">
-        <v>5.58204112769485</v>
+        <v>5.571608623548913</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.132641317218626</v>
+        <v>3.180000000000001</v>
       </c>
       <c r="R42" t="n">
-        <v>8.336424037074041</v>
+        <v>8.319999999999999</v>
       </c>
       <c r="S42" t="n">
-        <v>4.336295445513537</v>
+        <v>4.340796019900487</v>
       </c>
       <c r="T42" t="n">
-        <v>2.148671548097635</v>
+        <v>2.306666666666667</v>
       </c>
       <c r="U42" t="n">
-        <v>6.565986806333163</v>
+        <v>6.346666666666665</v>
       </c>
       <c r="V42" t="n">
-        <v>2.526203113967283</v>
+        <v>2.546334991708113</v>
       </c>
       <c r="W42" t="n">
-        <v>1.203248669598894</v>
+        <v>1.233333333333333</v>
       </c>
       <c r="X42" t="n">
-        <v>4.275563586545072</v>
+        <v>4.346666666666668</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.6044364404625175</v>
+        <v>0.623217247097844</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.001452925671531912</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>1.322306546898036</v>
+        <v>1.386666666666666</v>
       </c>
     </row>
     <row r="43">
@@ -3993,67 +3993,67 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.569243828476665</v>
+        <v>1.546268656716417</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5912857142857146</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="I43" t="n">
-        <v>2.908317460317462</v>
+        <v>2.906666666666666</v>
       </c>
       <c r="J43" t="n">
-        <v>3.132123123200725</v>
+        <v>3.078706467661677</v>
       </c>
       <c r="K43" t="n">
-        <v>1.414090476190478</v>
+        <v>1.393333333333333</v>
       </c>
       <c r="L43" t="n">
-        <v>5.392655555555549</v>
+        <v>5.36666666666667</v>
       </c>
       <c r="M43" t="n">
-        <v>3.624999648361575</v>
+        <v>3.635422885572126</v>
       </c>
       <c r="N43" t="n">
-        <v>1.590232362082362</v>
+        <v>1.48</v>
       </c>
       <c r="O43" t="n">
-        <v>6.026972466422466</v>
+        <v>5.980000000000002</v>
       </c>
       <c r="P43" t="n">
-        <v>3.648163742834008</v>
+        <v>3.611409618573785</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.721244874423822</v>
+        <v>1.793333333333333</v>
       </c>
       <c r="R43" t="n">
-        <v>6.003818076368076</v>
+        <v>5.840000000000002</v>
       </c>
       <c r="S43" t="n">
-        <v>3.273597567716966</v>
+        <v>3.263051409618568</v>
       </c>
       <c r="T43" t="n">
-        <v>1.640328650172408</v>
+        <v>1.673333333333334</v>
       </c>
       <c r="U43" t="n">
-        <v>5.426025396825406</v>
+        <v>5.486666666666665</v>
       </c>
       <c r="V43" t="n">
-        <v>2.100024875621872</v>
+        <v>2.101260364842436</v>
       </c>
       <c r="W43" t="n">
-        <v>0.8339315055315054</v>
+        <v>0.8800000000000002</v>
       </c>
       <c r="X43" t="n">
-        <v>3.6645</v>
+        <v>3.533333333333334</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.569468559266517</v>
+        <v>0.5669320066334985</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>1.334529439950029</v>
+        <v>1.386666666666666</v>
       </c>
     </row>
     <row r="44">
@@ -4085,58 +4085,58 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.01049751243781094</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>3.346283582089536</v>
+        <v>3.386102819237135</v>
       </c>
       <c r="N44" t="n">
-        <v>1.476</v>
+        <v>1.48</v>
       </c>
       <c r="O44" t="n">
-        <v>5.569000000000005</v>
+        <v>5.586666666666664</v>
       </c>
       <c r="P44" t="n">
-        <v>6.008974650556724</v>
+        <v>5.99973466003315</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.371850426783399</v>
+        <v>3.146666666666667</v>
       </c>
       <c r="R44" t="n">
-        <v>8.873278589384469</v>
+        <v>8.853333333333337</v>
       </c>
       <c r="S44" t="n">
-        <v>5.720466666666677</v>
+        <v>5.730878938640128</v>
       </c>
       <c r="T44" t="n">
-        <v>3.096380204980203</v>
+        <v>3.046666666666667</v>
       </c>
       <c r="U44" t="n">
-        <v>8.25150418470418</v>
+        <v>8.260000000000002</v>
       </c>
       <c r="V44" t="n">
-        <v>3.688513859275047</v>
+        <v>3.685771144278598</v>
       </c>
       <c r="W44" t="n">
-        <v>1.948688413943198</v>
+        <v>1.94</v>
       </c>
       <c r="X44" t="n">
-        <v>5.845259558245856</v>
+        <v>5.886666666666666</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.9158232153727315</v>
+        <v>0.928723051409618</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.1549018624522292</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="AA44" t="n">
-        <v>1.843220550597443</v>
+        <v>1.853333333333333</v>
       </c>
     </row>
     <row r="45">
@@ -4150,76 +4150,76 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3.421061359867315</v>
+        <v>3.214925373134314</v>
       </c>
       <c r="E45" t="n">
-        <v>1.588</v>
+        <v>1.400000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>5.707999999999998</v>
+        <v>5.253333333333331</v>
       </c>
       <c r="G45" t="n">
-        <v>6.14852238805969</v>
+        <v>6.119071310116083</v>
       </c>
       <c r="H45" t="n">
-        <v>3.527999999999998</v>
+        <v>3.406666666666665</v>
       </c>
       <c r="I45" t="n">
-        <v>9.526244444444432</v>
+        <v>9.520000000000003</v>
       </c>
       <c r="J45" t="n">
-        <v>6.502585979332981</v>
+        <v>6.429651741293522</v>
       </c>
       <c r="K45" t="n">
-        <v>3.530710717060717</v>
+        <v>3.619999999999998</v>
       </c>
       <c r="L45" t="n">
-        <v>9.316641414141412</v>
+        <v>8.960000000000003</v>
       </c>
       <c r="M45" t="n">
-        <v>5.682070575692956</v>
+        <v>5.6433167495854</v>
       </c>
       <c r="N45" t="n">
-        <v>3.370449810646871</v>
+        <v>3.373333333333335</v>
       </c>
       <c r="O45" t="n">
-        <v>8.639159996144208</v>
+        <v>8.386666666666663</v>
       </c>
       <c r="P45" t="n">
-        <v>4.851778828081803</v>
+        <v>4.884975124378098</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.669862515262516</v>
+        <v>2.746666666666666</v>
       </c>
       <c r="R45" t="n">
-        <v>6.835833333333327</v>
+        <v>6.96666666666667</v>
       </c>
       <c r="S45" t="n">
-        <v>3.589017250282415</v>
+        <v>3.679668325041455</v>
       </c>
       <c r="T45" t="n">
-        <v>1.979034965044428</v>
+        <v>1.96</v>
       </c>
       <c r="U45" t="n">
-        <v>5.672803977503972</v>
+        <v>5.780000000000001</v>
       </c>
       <c r="V45" t="n">
-        <v>2.107853670320822</v>
+        <v>2.120033167495843</v>
       </c>
       <c r="W45" t="n">
-        <v>0.8155258147839001</v>
+        <v>0.7066666666666669</v>
       </c>
       <c r="X45" t="n">
-        <v>3.566618306693308</v>
+        <v>3.540000000000001</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.4917475137079607</v>
+        <v>0.4926036484245438</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.001452925671531912</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>1.186296847913696</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="46">
@@ -4251,58 +4251,58 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.560805970149256</v>
+        <v>1.567330016583747</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4019999999999992</v>
+        <v>0.4066666666666669</v>
       </c>
       <c r="L46" t="n">
-        <v>3.131299999999998</v>
+        <v>3.140000000000001</v>
       </c>
       <c r="M46" t="n">
-        <v>7.078912603648417</v>
+        <v>7.139601990049749</v>
       </c>
       <c r="N46" t="n">
-        <v>3.822242857142856</v>
+        <v>3.946666666666666</v>
       </c>
       <c r="O46" t="n">
-        <v>10.60833884808002</v>
+        <v>10.76</v>
       </c>
       <c r="P46" t="n">
-        <v>7.462638805970134</v>
+        <v>7.370215588723038</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.590731374809041</v>
+        <v>4.74</v>
       </c>
       <c r="R46" t="n">
-        <v>10.46964264069264</v>
+        <v>10.23333333333333</v>
       </c>
       <c r="S46" t="n">
-        <v>5.927421680659482</v>
+        <v>5.934958540630174</v>
       </c>
       <c r="T46" t="n">
-        <v>3.456029301199889</v>
+        <v>3.666666666666666</v>
       </c>
       <c r="U46" t="n">
-        <v>8.404651257222309</v>
+        <v>8.233333333333333</v>
       </c>
       <c r="V46" t="n">
-        <v>3.43046890959336</v>
+        <v>3.468424543946917</v>
       </c>
       <c r="W46" t="n">
-        <v>1.716558474666249</v>
+        <v>1.673333333333334</v>
       </c>
       <c r="X46" t="n">
-        <v>5.469830355300013</v>
+        <v>5.406666666666669</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.7761694058022208</v>
+        <v>0.7982421227197339</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.1300012901292644</v>
+        <v>0.05999999999999999</v>
       </c>
       <c r="AA46" t="n">
-        <v>1.67260570890822</v>
+        <v>1.606666666666668</v>
       </c>
     </row>
     <row r="47">
@@ -4325,67 +4325,67 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>2.559522388059695</v>
+        <v>2.538275290215579</v>
       </c>
       <c r="H47" t="n">
-        <v>0.992</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="I47" t="n">
-        <v>4.550666666666678</v>
+        <v>4.566666666666664</v>
       </c>
       <c r="J47" t="n">
-        <v>9.292696055451156</v>
+        <v>9.27210613598672</v>
       </c>
       <c r="K47" t="n">
-        <v>5.901088925325883</v>
+        <v>5.659999999999997</v>
       </c>
       <c r="L47" t="n">
-        <v>13.0697076485576</v>
+        <v>13.00666666666666</v>
       </c>
       <c r="M47" t="n">
-        <v>8.631839370545467</v>
+        <v>8.486699834162518</v>
       </c>
       <c r="N47" t="n">
-        <v>5.590721978021979</v>
+        <v>5.526666666666666</v>
       </c>
       <c r="O47" t="n">
-        <v>11.97863764585455</v>
+        <v>11.78</v>
       </c>
       <c r="P47" t="n">
-        <v>6.449626542611608</v>
+        <v>6.434560530679925</v>
       </c>
       <c r="Q47" t="n">
-        <v>3.940100449161031</v>
+        <v>3.806666666666665</v>
       </c>
       <c r="R47" t="n">
-        <v>9.273187010864952</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="S47" t="n">
-        <v>4.829978502639569</v>
+        <v>4.75174129353233</v>
       </c>
       <c r="T47" t="n">
-        <v>2.686557124139479</v>
+        <v>2.7</v>
       </c>
       <c r="U47" t="n">
-        <v>7.028427021306865</v>
+        <v>6.853333333333335</v>
       </c>
       <c r="V47" t="n">
-        <v>2.599961573086936</v>
+        <v>2.592371475953556</v>
       </c>
       <c r="W47" t="n">
-        <v>1.084519997496008</v>
+        <v>1.16</v>
       </c>
       <c r="X47" t="n">
-        <v>4.295849025974022</v>
+        <v>4.260000000000002</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.6207268286634825</v>
+        <v>0.6079601990049741</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.01242533334403209</v>
+        <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>1.464634316628676</v>
+        <v>1.399999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -4399,76 +4399,76 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4998447761194021</v>
+        <v>0.5945936981757869</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>1.384</v>
+        <v>1.526666666666666</v>
       </c>
       <c r="G48" t="n">
-        <v>2.516640180052104</v>
+        <v>2.569718076285224</v>
       </c>
       <c r="H48" t="n">
-        <v>1.070666666666667</v>
+        <v>1.046666666666667</v>
       </c>
       <c r="I48" t="n">
-        <v>4.696266666666676</v>
+        <v>4.739999999999998</v>
       </c>
       <c r="J48" t="n">
-        <v>3.512779889872422</v>
+        <v>3.517512437810942</v>
       </c>
       <c r="K48" t="n">
-        <v>1.582752380952382</v>
+        <v>1.466666666666666</v>
       </c>
       <c r="L48" t="n">
-        <v>5.792579365079366</v>
+        <v>5.840000000000002</v>
       </c>
       <c r="M48" t="n">
-        <v>3.704283428815506</v>
+        <v>3.691608623548909</v>
       </c>
       <c r="N48" t="n">
-        <v>1.673066938616938</v>
+        <v>1.646666666666667</v>
       </c>
       <c r="O48" t="n">
-        <v>6.189066666666663</v>
+        <v>6.046666666666667</v>
       </c>
       <c r="P48" t="n">
-        <v>3.539061201926866</v>
+        <v>3.507628524046431</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.725067921964516</v>
+        <v>1.620000000000001</v>
       </c>
       <c r="R48" t="n">
-        <v>5.859627050727048</v>
+        <v>5.780000000000002</v>
       </c>
       <c r="S48" t="n">
-        <v>3.113492537313423</v>
+        <v>3.073930348258699</v>
       </c>
       <c r="T48" t="n">
-        <v>1.599524332852302</v>
+        <v>1.580000000000001</v>
       </c>
       <c r="U48" t="n">
-        <v>5.234511111111114</v>
+        <v>5.173333333333332</v>
       </c>
       <c r="V48" t="n">
-        <v>2.001019900497512</v>
+        <v>1.951376451077944</v>
       </c>
       <c r="W48" t="n">
-        <v>0.7084904065719847</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="X48" t="n">
-        <v>3.568300549450548</v>
+        <v>3.406666666666668</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.5023089911194382</v>
+        <v>0.4739966832504145</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>1.253195991275094</v>
+        <v>1.193333333333333</v>
       </c>
     </row>
     <row r="49">
@@ -4500,58 +4500,58 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.229547716186521</v>
+        <v>0.2500497512437793</v>
       </c>
       <c r="K49" t="n">
-        <v>0.007000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.7475440476190471</v>
+        <v>0.8600000000000004</v>
       </c>
       <c r="M49" t="n">
-        <v>0.893392482034274</v>
+        <v>0.8966169154228854</v>
       </c>
       <c r="N49" t="n">
-        <v>0.1666871572871574</v>
+        <v>0.1800000000000001</v>
       </c>
       <c r="O49" t="n">
-        <v>1.851</v>
+        <v>1.886666666666666</v>
       </c>
       <c r="P49" t="n">
-        <v>1.238065624259654</v>
+        <v>1.240696517412935</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.3170075707946082</v>
+        <v>0.3800000000000002</v>
       </c>
       <c r="R49" t="n">
-        <v>2.384333333333335</v>
+        <v>2.42</v>
       </c>
       <c r="S49" t="n">
-        <v>1.315737976782751</v>
+        <v>1.323615257048093</v>
       </c>
       <c r="T49" t="n">
-        <v>0.3736444444444438</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="U49" t="n">
-        <v>2.530671461871463</v>
+        <v>2.6</v>
       </c>
       <c r="V49" t="n">
-        <v>0.9903618160138763</v>
+        <v>0.9968159203980081</v>
       </c>
       <c r="W49" t="n">
-        <v>0.1918010286010282</v>
+        <v>0.1933333333333334</v>
       </c>
       <c r="X49" t="n">
-        <v>1.986663596491228</v>
+        <v>1.98</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.2704240861807672</v>
+        <v>0.2673300165837473</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.7752411809323569</v>
+        <v>0.7933333333333337</v>
       </c>
     </row>
     <row r="50">
@@ -4565,76 +4565,76 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2327868435599774</v>
+        <v>0.32334991708126</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.824</v>
+        <v>0.9333333333333337</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9267935204927737</v>
+        <v>0.9665671641791038</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1937017316017316</v>
+        <v>0.2066666666666668</v>
       </c>
       <c r="I50" t="n">
-        <v>1.951073015873017</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="J50" t="n">
-        <v>1.274873237707565</v>
+        <v>1.292669983416251</v>
       </c>
       <c r="K50" t="n">
-        <v>0.3426955266955262</v>
+        <v>0.3866666666666668</v>
       </c>
       <c r="L50" t="n">
-        <v>2.399178354978356</v>
+        <v>2.533333333333333</v>
       </c>
       <c r="M50" t="n">
-        <v>1.499800868672511</v>
+        <v>1.523051409618573</v>
       </c>
       <c r="N50" t="n">
-        <v>0.3168190476190477</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="O50" t="n">
-        <v>2.852176190476194</v>
+        <v>2.846666666666665</v>
       </c>
       <c r="P50" t="n">
-        <v>1.473556195932314</v>
+        <v>1.468789386401326</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.4036936001247551</v>
+        <v>0.3933333333333334</v>
       </c>
       <c r="R50" t="n">
-        <v>2.892485714285717</v>
+        <v>2.946666666666666</v>
       </c>
       <c r="S50" t="n">
-        <v>1.319617561542936</v>
+        <v>1.349784411276947</v>
       </c>
       <c r="T50" t="n">
-        <v>0.399999999999999</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="U50" t="n">
-        <v>2.584606349206349</v>
+        <v>2.513333333333333</v>
       </c>
       <c r="V50" t="n">
-        <v>0.8859507699597244</v>
+        <v>0.9473631840796009</v>
       </c>
       <c r="W50" t="n">
-        <v>0.1929059829059825</v>
+        <v>0.1933333333333334</v>
       </c>
       <c r="X50" t="n">
-        <v>1.910753476262301</v>
+        <v>1.986666666666667</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.2544800639658837</v>
+        <v>0.2474295190713089</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.8015445762153013</v>
+        <v>0.8000000000000004</v>
       </c>
     </row>
     <row r="51">
@@ -4666,58 +4666,58 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>0.02696517412935314</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M51" t="n">
-        <v>0.4675727197346591</v>
+        <v>0.4715091210613586</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>1.098000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="P51" t="n">
-        <v>0.6499834162520726</v>
+        <v>0.6471973466003312</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.01564857177682081</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="R51" t="n">
-        <v>1.428164835164837</v>
+        <v>1.426666666666666</v>
       </c>
       <c r="S51" t="n">
-        <v>0.6655566611387497</v>
+        <v>0.6879601990049733</v>
       </c>
       <c r="T51" t="n">
-        <v>0.01320634920634921</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>1.458324290524293</v>
+        <v>1.466666666666666</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5382561478322662</v>
+        <v>0.5449087893864001</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>1.287952641802643</v>
+        <v>1.233333333333333</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.1558818018432007</v>
+        <v>0.1556550580431177</v>
       </c>
       <c r="Z51" t="n">
         <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.5294471223221224</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="52">
@@ -4758,49 +4758,49 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>4.609636815920383</v>
+        <v>4.592504145936969</v>
       </c>
       <c r="N52" t="n">
-        <v>2.134285714285715</v>
+        <v>2.12</v>
       </c>
       <c r="O52" t="n">
-        <v>7.101666666666667</v>
+        <v>7.08</v>
       </c>
       <c r="P52" t="n">
-        <v>7.36120718629076</v>
+        <v>7.326567164179098</v>
       </c>
       <c r="Q52" t="n">
-        <v>4.406811868375448</v>
+        <v>4.113333333333334</v>
       </c>
       <c r="R52" t="n">
-        <v>10.30512692307692</v>
+        <v>10.14</v>
       </c>
       <c r="S52" t="n">
-        <v>6.382746037010706</v>
+        <v>6.35164179104477</v>
       </c>
       <c r="T52" t="n">
-        <v>3.951209087209087</v>
+        <v>3.946666666666666</v>
       </c>
       <c r="U52" t="n">
-        <v>9.038701587301588</v>
+        <v>9.059999999999999</v>
       </c>
       <c r="V52" t="n">
-        <v>3.879379219858014</v>
+        <v>3.942852404643434</v>
       </c>
       <c r="W52" t="n">
-        <v>1.995656939413526</v>
+        <v>1.92</v>
       </c>
       <c r="X52" t="n">
-        <v>5.909209967949669</v>
+        <v>6.046666666666665</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.9183096166994312</v>
+        <v>0.9444444444444433</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.1515060766268898</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="AA52" t="n">
-        <v>1.842072898249791</v>
+        <v>1.806666666666666</v>
       </c>
     </row>
     <row r="53">
@@ -4814,76 +4814,76 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1.490481665745349</v>
+        <v>1.427694859038141</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3879999999999999</v>
+        <v>0.3466666666666668</v>
       </c>
       <c r="F53" t="n">
-        <v>2.787999999999999</v>
+        <v>2.593333333333332</v>
       </c>
       <c r="G53" t="n">
-        <v>3.108975124378095</v>
+        <v>3.160497512437797</v>
       </c>
       <c r="H53" t="n">
-        <v>1.36</v>
+        <v>1.386666666666667</v>
       </c>
       <c r="I53" t="n">
-        <v>5.735888888888902</v>
+        <v>5.786666666666664</v>
       </c>
       <c r="J53" t="n">
-        <v>3.668775080585519</v>
+        <v>3.760995024875611</v>
       </c>
       <c r="K53" t="n">
-        <v>1.755261904761906</v>
+        <v>1.786666666666666</v>
       </c>
       <c r="L53" t="n">
-        <v>6.057917460317461</v>
+        <v>6.173333333333333</v>
       </c>
       <c r="M53" t="n">
-        <v>3.755628364670146</v>
+        <v>3.835820895522385</v>
       </c>
       <c r="N53" t="n">
-        <v>1.832622222222223</v>
+        <v>1.9</v>
       </c>
       <c r="O53" t="n">
-        <v>6.104318498168494</v>
+        <v>6.413333333333335</v>
       </c>
       <c r="P53" t="n">
-        <v>3.575019742557046</v>
+        <v>3.562321724709775</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.747150461647055</v>
+        <v>1.773333333333333</v>
       </c>
       <c r="R53" t="n">
-        <v>5.63808211233211</v>
+        <v>5.540000000000001</v>
       </c>
       <c r="S53" t="n">
-        <v>3.078445202558626</v>
+        <v>3.043383084577108</v>
       </c>
       <c r="T53" t="n">
-        <v>1.519272360750331</v>
+        <v>1.513333333333334</v>
       </c>
       <c r="U53" t="n">
-        <v>5.196523809523804</v>
+        <v>5.099999999999999</v>
       </c>
       <c r="V53" t="n">
-        <v>1.885031509121061</v>
+        <v>1.889983416252073</v>
       </c>
       <c r="W53" t="n">
-        <v>0.7161514183883745</v>
+        <v>0.7066666666666668</v>
       </c>
       <c r="X53" t="n">
-        <v>3.384414285714284</v>
+        <v>3.353333333333335</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.4835459277869718</v>
+        <v>0.4704809286898833</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>1.155320375920377</v>
+        <v>1.133333333333333</v>
       </c>
     </row>
     <row r="54">
@@ -4897,76 +4897,76 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.02262023217247087</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4994696951749182</v>
+        <v>0.4810613598673292</v>
       </c>
       <c r="H54" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1.337722222222224</v>
+        <v>1.34</v>
       </c>
       <c r="J54" t="n">
-        <v>0.6555535339177123</v>
+        <v>0.6654726368159193</v>
       </c>
       <c r="K54" t="n">
-        <v>0.04687619047619049</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="L54" t="n">
-        <v>1.548963847263847</v>
+        <v>1.586666666666667</v>
       </c>
       <c r="M54" t="n">
-        <v>0.7989575786292192</v>
+        <v>0.7863681592039792</v>
       </c>
       <c r="N54" t="n">
-        <v>0.06295454545454547</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="O54" t="n">
-        <v>1.642723160173158</v>
+        <v>1.653333333333334</v>
       </c>
       <c r="P54" t="n">
-        <v>0.8218913794006849</v>
+        <v>0.8319071310116078</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.1633808929104528</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="R54" t="n">
-        <v>1.780516266517618</v>
+        <v>1.793333333333333</v>
       </c>
       <c r="S54" t="n">
-        <v>0.766873248936258</v>
+        <v>0.7653399668325033</v>
       </c>
       <c r="T54" t="n">
-        <v>0.08814280904280899</v>
+        <v>0.1533333333333334</v>
       </c>
       <c r="U54" t="n">
-        <v>1.717759817742171</v>
+        <v>1.646666666666667</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5404545765165548</v>
+        <v>0.5234162520729669</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>1.231130158730161</v>
+        <v>1.339999999999999</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.1431944414347398</v>
+        <v>0.1519402985074627</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.600000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="55">
@@ -4989,67 +4989,67 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7160387112058738</v>
+        <v>0.6605306799336639</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1087666666666667</v>
+        <v>0.1333333333333334</v>
       </c>
       <c r="I55" t="n">
-        <v>1.626961904761904</v>
+        <v>1.540000000000001</v>
       </c>
       <c r="J55" t="n">
-        <v>1.119699176555892</v>
+        <v>1.102222222222221</v>
       </c>
       <c r="K55" t="n">
-        <v>0.3114026695526692</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="L55" t="n">
-        <v>2.222725901875902</v>
+        <v>2.180000000000001</v>
       </c>
       <c r="M55" t="n">
-        <v>1.427900718629077</v>
+        <v>1.393466003316749</v>
       </c>
       <c r="N55" t="n">
-        <v>0.3864839826839826</v>
+        <v>0.3533333333333334</v>
       </c>
       <c r="O55" t="n">
-        <v>2.615436874236873</v>
+        <v>2.593333333333333</v>
       </c>
       <c r="P55" t="n">
-        <v>1.447783085295025</v>
+        <v>1.433665008291873</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.4028047112358662</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="R55" t="n">
-        <v>2.889811538461538</v>
+        <v>2.693333333333332</v>
       </c>
       <c r="S55" t="n">
-        <v>1.404394215292722</v>
+        <v>1.428225538971807</v>
       </c>
       <c r="T55" t="n">
-        <v>0.3963333333333324</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="U55" t="n">
-        <v>2.823603688514217</v>
+        <v>2.806666666666665</v>
       </c>
       <c r="V55" t="n">
-        <v>0.9552067008372361</v>
+        <v>0.9444112769485891</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1971282051282047</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="X55" t="n">
-        <v>1.986752202243921</v>
+        <v>1.993333333333333</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.2577981179268484</v>
+        <v>0.2737313432835812</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.8015445762153013</v>
+        <v>0.8000000000000004</v>
       </c>
     </row>
     <row r="56">
@@ -5081,58 +5081,58 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>4.666736318407964</v>
+        <v>4.659469320066327</v>
       </c>
       <c r="K56" t="n">
-        <v>2.390000000000003</v>
+        <v>2.386666666666666</v>
       </c>
       <c r="L56" t="n">
-        <v>7.60491428571428</v>
+        <v>7.533333333333337</v>
       </c>
       <c r="M56" t="n">
-        <v>7.533515547249865</v>
+        <v>7.59538971807628</v>
       </c>
       <c r="N56" t="n">
-        <v>4.476568437118436</v>
+        <v>4.440000000000001</v>
       </c>
       <c r="O56" t="n">
-        <v>10.73420476549594</v>
+        <v>10.94</v>
       </c>
       <c r="P56" t="n">
-        <v>7.007535678031193</v>
+        <v>6.972802653399662</v>
       </c>
       <c r="Q56" t="n">
-        <v>4.392582782330679</v>
+        <v>4.353333333333335</v>
       </c>
       <c r="R56" t="n">
-        <v>9.967757875457867</v>
+        <v>9.860000000000005</v>
       </c>
       <c r="S56" t="n">
-        <v>5.388595700091835</v>
+        <v>5.373300165837473</v>
       </c>
       <c r="T56" t="n">
-        <v>3.122542010750599</v>
+        <v>3.013333333333334</v>
       </c>
       <c r="U56" t="n">
-        <v>7.979297041847041</v>
+        <v>8.146666666666665</v>
       </c>
       <c r="V56" t="n">
-        <v>3.17508879236872</v>
+        <v>3.209087893863999</v>
       </c>
       <c r="W56" t="n">
-        <v>1.568942207129748</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="X56" t="n">
-        <v>5.010514844206359</v>
+        <v>5.02</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.7435969716443391</v>
+        <v>0.7238805970149246</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.07720665079811957</v>
+        <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>1.599345813017351</v>
+        <v>1.586666666666667</v>
       </c>
     </row>
     <row r="57">
@@ -5164,58 +5164,58 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.986009950248756</v>
+        <v>2.013864013266998</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7759999999999987</v>
+        <v>0.7866666666666671</v>
       </c>
       <c r="L57" t="n">
-        <v>3.575999999999997</v>
+        <v>3.540000000000001</v>
       </c>
       <c r="M57" t="n">
-        <v>8.524142722968479</v>
+        <v>8.248822553897172</v>
       </c>
       <c r="N57" t="n">
-        <v>5.179263074455645</v>
+        <v>4.953333333333334</v>
       </c>
       <c r="O57" t="n">
-        <v>11.96709872133739</v>
+        <v>11.88666666666667</v>
       </c>
       <c r="P57" t="n">
-        <v>7.93828715154386</v>
+        <v>7.865936981757867</v>
       </c>
       <c r="Q57" t="n">
-        <v>4.984190533999673</v>
+        <v>4.860000000000001</v>
       </c>
       <c r="R57" t="n">
-        <v>10.92060825693914</v>
+        <v>10.88</v>
       </c>
       <c r="S57" t="n">
-        <v>5.893963083449671</v>
+        <v>5.947495854063011</v>
       </c>
       <c r="T57" t="n">
-        <v>3.537659722804429</v>
+        <v>3.626666666666666</v>
       </c>
       <c r="U57" t="n">
-        <v>8.577757991229042</v>
+        <v>8.806666666666667</v>
       </c>
       <c r="V57" t="n">
-        <v>3.434457521230479</v>
+        <v>3.434162520729678</v>
       </c>
       <c r="W57" t="n">
-        <v>1.708685745452506</v>
+        <v>1.679999999999999</v>
       </c>
       <c r="X57" t="n">
-        <v>5.371030784674262</v>
+        <v>5.566666666666668</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.8099697262798001</v>
+        <v>0.7907462686567155</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.1192479339066651</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="AA57" t="n">
-        <v>1.67096301884974</v>
+        <v>1.633333333333334</v>
       </c>
     </row>
     <row r="58">
@@ -5229,76 +5229,76 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2182176893311218</v>
+        <v>0.3237810945273626</v>
       </c>
       <c r="E58" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8</v>
+        <v>0.9866666666666671</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9294936863302529</v>
+        <v>0.9584411276948587</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2089350649350649</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>1.923028571428572</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>1.271260255002045</v>
+        <v>1.287860696517412</v>
       </c>
       <c r="K58" t="n">
-        <v>0.346402669552669</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="L58" t="n">
-        <v>2.402583116883118</v>
+        <v>2.553333333333334</v>
       </c>
       <c r="M58" t="n">
-        <v>1.518119087104161</v>
+        <v>1.525771144278606</v>
       </c>
       <c r="N58" t="n">
-        <v>0.402322077922078</v>
+        <v>0.48</v>
       </c>
       <c r="O58" t="n">
-        <v>2.899942857142859</v>
+        <v>2.926666666666666</v>
       </c>
       <c r="P58" t="n">
-        <v>1.475679152577659</v>
+        <v>1.497114427860696</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.4070269334580885</v>
+        <v>0.48</v>
       </c>
       <c r="R58" t="n">
-        <v>2.73216111111111</v>
+        <v>2.913333333333333</v>
       </c>
       <c r="S58" t="n">
-        <v>1.400032106404743</v>
+        <v>1.384013266998341</v>
       </c>
       <c r="T58" t="n">
-        <v>0.3855999999999992</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="U58" t="n">
-        <v>2.618945776056303</v>
+        <v>2.666666666666666</v>
       </c>
       <c r="V58" t="n">
-        <v>0.9520244519087194</v>
+        <v>0.9370149253731334</v>
       </c>
       <c r="W58" t="n">
-        <v>0.1917948717948713</v>
+        <v>0.1666666666666668</v>
       </c>
       <c r="X58" t="n">
-        <v>1.99575220224392</v>
+        <v>2</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.2584250813034388</v>
+        <v>0.2465339966832492</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.8015445762153013</v>
+        <v>0.8000000000000005</v>
       </c>
     </row>
     <row r="59">
@@ -5330,58 +5330,58 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>3.569418147358433</v>
+        <v>3.565671641791032</v>
       </c>
       <c r="K59" t="n">
-        <v>1.418380952380954</v>
+        <v>1.419999999999999</v>
       </c>
       <c r="L59" t="n">
-        <v>6.15748095238095</v>
+        <v>6.180000000000004</v>
       </c>
       <c r="M59" t="n">
-        <v>6.279414377068474</v>
+        <v>6.319601990049744</v>
       </c>
       <c r="N59" t="n">
-        <v>3.584678344032987</v>
+        <v>3.679999999999998</v>
       </c>
       <c r="O59" t="n">
-        <v>9.605675113775112</v>
+        <v>9.540000000000003</v>
       </c>
       <c r="P59" t="n">
-        <v>6.21004262310381</v>
+        <v>6.233432835820887</v>
       </c>
       <c r="Q59" t="n">
-        <v>3.565217747629047</v>
+        <v>3.54</v>
       </c>
       <c r="R59" t="n">
-        <v>8.727677940033825</v>
+        <v>8.9</v>
       </c>
       <c r="S59" t="n">
-        <v>5.361225557398179</v>
+        <v>5.235522388059691</v>
       </c>
       <c r="T59" t="n">
-        <v>3.236646501030415</v>
+        <v>3.04</v>
       </c>
       <c r="U59" t="n">
-        <v>8.021279061276893</v>
+        <v>8.180000000000005</v>
       </c>
       <c r="V59" t="n">
-        <v>3.177302620055682</v>
+        <v>3.186766169154219</v>
       </c>
       <c r="W59" t="n">
-        <v>1.564669748204658</v>
+        <v>1.620000000000001</v>
       </c>
       <c r="X59" t="n">
-        <v>5.004506607998124</v>
+        <v>5.1</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.7367706063894779</v>
+        <v>0.7439800995024862</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.09978280376545517</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="AA59" t="n">
-        <v>1.594196072561728</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="60">
@@ -5395,76 +5395,76 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2094874516307343</v>
+        <v>0.3058706467661679</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7946666666666666</v>
+        <v>0.9533333333333334</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5813708126036471</v>
+        <v>0.6012935323383073</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1.426966666666669</v>
+        <v>1.426666666666666</v>
       </c>
       <c r="J60" t="n">
-        <v>0.7607999960514877</v>
+        <v>0.7525373134328355</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1449349206349205</v>
+        <v>0.14</v>
       </c>
       <c r="L60" t="n">
-        <v>1.663728571428569</v>
+        <v>1.660000000000001</v>
       </c>
       <c r="M60" t="n">
-        <v>0.8102114022240876</v>
+        <v>0.8224875621890546</v>
       </c>
       <c r="N60" t="n">
-        <v>0.1066212121212122</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="O60" t="n">
-        <v>1.711159523809523</v>
+        <v>1.726666666666667</v>
       </c>
       <c r="P60" t="n">
-        <v>0.7916454394693194</v>
+        <v>0.8152570480928678</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.1683808929104528</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="R60" t="n">
-        <v>1.693373936194523</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="S60" t="n">
-        <v>0.7369276085266993</v>
+        <v>0.7400663349917079</v>
       </c>
       <c r="T60" t="n">
-        <v>0.1315587301587299</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="U60" t="n">
-        <v>1.68189341029341</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5179878944714752</v>
+        <v>0.5286898839137631</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>1.262600000000002</v>
+        <v>1.226666666666667</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.1147796402602372</v>
+        <v>0.124742951907131</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.4719999999999997</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="61">
@@ -5487,67 +5487,67 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>4.732099004975105</v>
+        <v>4.731210613598658</v>
       </c>
       <c r="H61" t="n">
-        <v>2.392333333333335</v>
+        <v>2.386666666666666</v>
       </c>
       <c r="I61" t="n">
-        <v>7.527844444444438</v>
+        <v>7.480000000000002</v>
       </c>
       <c r="J61" t="n">
-        <v>7.627015965435557</v>
+        <v>7.670281923714746</v>
       </c>
       <c r="K61" t="n">
-        <v>4.595974580682475</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="L61" t="n">
-        <v>11.04891657007424</v>
+        <v>10.96666666666667</v>
       </c>
       <c r="M61" t="n">
-        <v>7.24304416178072</v>
+        <v>7.273830845771134</v>
       </c>
       <c r="N61" t="n">
-        <v>4.368048005915652</v>
+        <v>4.459999999999998</v>
       </c>
       <c r="O61" t="n">
-        <v>10.02887756132757</v>
+        <v>9.986666666666668</v>
       </c>
       <c r="P61" t="n">
-        <v>5.81324569793032</v>
+        <v>5.868756218905458</v>
       </c>
       <c r="Q61" t="n">
-        <v>3.233318541373302</v>
+        <v>3.286666666666668</v>
       </c>
       <c r="R61" t="n">
-        <v>8.481092897298776</v>
+        <v>8.64666666666667</v>
       </c>
       <c r="S61" t="n">
-        <v>4.338438981800357</v>
+        <v>4.363051409618572</v>
       </c>
       <c r="T61" t="n">
-        <v>2.167555240233959</v>
+        <v>2.393333333333333</v>
       </c>
       <c r="U61" t="n">
-        <v>6.633374467722342</v>
+        <v>6.593333333333336</v>
       </c>
       <c r="V61" t="n">
-        <v>2.500750705844726</v>
+        <v>2.47008291873962</v>
       </c>
       <c r="W61" t="n">
-        <v>1.142668443406059</v>
+        <v>1</v>
       </c>
       <c r="X61" t="n">
-        <v>4.095956087688578</v>
+        <v>4.186666666666669</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.5775635921461889</v>
+        <v>0.6035157545605294</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.001452925671531912</v>
+        <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>1.321294767286257</v>
+        <v>1.399999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -5570,67 +5570,67 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1.063592039800996</v>
+        <v>1.153300165837478</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1266666666666667</v>
+        <v>0.2533333333333335</v>
       </c>
       <c r="I62" t="n">
-        <v>2.207999999999994</v>
+        <v>2.320000000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>5.355369343757386</v>
+        <v>5.385572139303473</v>
       </c>
       <c r="K62" t="n">
-        <v>2.970966666666667</v>
+        <v>2.926666666666666</v>
       </c>
       <c r="L62" t="n">
-        <v>8.239433333333325</v>
+        <v>8.246666666666668</v>
       </c>
       <c r="M62" t="n">
-        <v>6.343404700233424</v>
+        <v>6.498275290215579</v>
       </c>
       <c r="N62" t="n">
-        <v>3.586285403640048</v>
+        <v>3.666666666666666</v>
       </c>
       <c r="O62" t="n">
-        <v>9.435679997780001</v>
+        <v>9.639999999999999</v>
       </c>
       <c r="P62" t="n">
-        <v>5.964159203980091</v>
+        <v>5.937711442786061</v>
       </c>
       <c r="Q62" t="n">
-        <v>3.530207565241775</v>
+        <v>3.373333333333335</v>
       </c>
       <c r="R62" t="n">
-        <v>9.091608441558433</v>
+        <v>8.846666666666666</v>
       </c>
       <c r="S62" t="n">
-        <v>4.71130873373907</v>
+        <v>4.705174129353225</v>
       </c>
       <c r="T62" t="n">
-        <v>2.712235834318186</v>
+        <v>2.686666666666666</v>
       </c>
       <c r="U62" t="n">
-        <v>6.821463505076511</v>
+        <v>6.806666666666666</v>
       </c>
       <c r="V62" t="n">
-        <v>2.767409571578217</v>
+        <v>2.81349917081259</v>
       </c>
       <c r="W62" t="n">
-        <v>1.233758756213945</v>
+        <v>1.293333333333333</v>
       </c>
       <c r="X62" t="n">
-        <v>4.483735995597187</v>
+        <v>4.573333333333331</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.6876522513694145</v>
+        <v>0.7168159203980087</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.01571162801632497</v>
+        <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>1.48565542424264</v>
+        <v>1.593333333333334</v>
       </c>
     </row>
     <row r="63">
@@ -5644,76 +5644,76 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>4.725492537313427</v>
+        <v>4.972305140961852</v>
       </c>
       <c r="E63" t="n">
-        <v>2.396000000000002</v>
+        <v>2.533333333333333</v>
       </c>
       <c r="F63" t="n">
-        <v>7.604000000000005</v>
+        <v>7.913333333333338</v>
       </c>
       <c r="G63" t="n">
-        <v>7.637646102819224</v>
+        <v>7.869054726368145</v>
       </c>
       <c r="H63" t="n">
-        <v>4.809333333333335</v>
+        <v>4.94</v>
       </c>
       <c r="I63" t="n">
-        <v>11.32302222222221</v>
+        <v>11.64666666666667</v>
       </c>
       <c r="J63" t="n">
-        <v>7.332302463183246</v>
+        <v>7.337512437810934</v>
       </c>
       <c r="K63" t="n">
-        <v>4.401436246794138</v>
+        <v>4.34</v>
       </c>
       <c r="L63" t="n">
-        <v>10.27301428571428</v>
+        <v>10.12</v>
       </c>
       <c r="M63" t="n">
-        <v>6.02553198294242</v>
+        <v>6.029320066334983</v>
       </c>
       <c r="N63" t="n">
-        <v>3.293066666666665</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="O63" t="n">
-        <v>8.619286724386725</v>
+        <v>8.593333333333332</v>
       </c>
       <c r="P63" t="n">
-        <v>4.743286472399896</v>
+        <v>4.781724709784402</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.442167332667333</v>
+        <v>2.453333333333333</v>
       </c>
       <c r="R63" t="n">
-        <v>7.065914285714284</v>
+        <v>7.179999999999998</v>
       </c>
       <c r="S63" t="n">
-        <v>3.498045457748427</v>
+        <v>3.523681592039791</v>
       </c>
       <c r="T63" t="n">
-        <v>1.742934295334296</v>
+        <v>1.773333333333333</v>
       </c>
       <c r="U63" t="n">
-        <v>5.386414896214891</v>
+        <v>5.406666666666669</v>
       </c>
       <c r="V63" t="n">
-        <v>2.031462939271885</v>
+        <v>1.990182421227191</v>
       </c>
       <c r="W63" t="n">
-        <v>0.8176461452274504</v>
+        <v>0.8000000000000004</v>
       </c>
       <c r="X63" t="n">
-        <v>3.531661740192175</v>
+        <v>3.386666666666668</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.4813718823465082</v>
+        <v>0.4541956882255375</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.001452925671531912</v>
+        <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>1.189781058440012</v>
+        <v>1.193333333333333</v>
       </c>
     </row>
     <row r="64">
@@ -5727,76 +5727,76 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2073912658927576</v>
+        <v>0.3139966832504132</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7866666666666667</v>
+        <v>0.9533333333333334</v>
       </c>
       <c r="G64" t="n">
-        <v>0.5864752902155873</v>
+        <v>0.607429519071309</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1.443566666666669</v>
+        <v>1.46</v>
       </c>
       <c r="J64" t="n">
-        <v>0.770201322751322</v>
+        <v>0.766633499170812</v>
       </c>
       <c r="K64" t="n">
-        <v>0.07512857142857145</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="L64" t="n">
-        <v>1.712067460317459</v>
+        <v>1.693333333333334</v>
       </c>
       <c r="M64" t="n">
-        <v>0.8236589028163643</v>
+        <v>0.8394029850746263</v>
       </c>
       <c r="N64" t="n">
-        <v>0.1066212121212122</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="O64" t="n">
-        <v>1.707159523809523</v>
+        <v>1.726666666666667</v>
       </c>
       <c r="P64" t="n">
-        <v>0.8351561817072782</v>
+        <v>0.8295190713101146</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.1683808929104528</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="R64" t="n">
-        <v>1.777165192754779</v>
+        <v>1.766666666666666</v>
       </c>
       <c r="S64" t="n">
-        <v>0.7597388659877381</v>
+        <v>0.7495190713101159</v>
       </c>
       <c r="T64" t="n">
-        <v>0.05517142857142859</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="U64" t="n">
-        <v>1.754331672615886</v>
+        <v>1.766666666666666</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5372466715967099</v>
+        <v>0.5373134328358198</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>1.344600000000002</v>
+        <v>1.26</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.1410793085852786</v>
+        <v>0.1318739635157545</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.0001851951233739719</v>
+        <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.5880000000000009</v>
+        <v>0.5666666666666665</v>
       </c>
     </row>
     <row r="65">
@@ -5837,49 +5837,49 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>5.908194859038134</v>
+        <v>5.884510779436137</v>
       </c>
       <c r="N65" t="n">
-        <v>3.393333333333336</v>
+        <v>3.400000000000001</v>
       </c>
       <c r="O65" t="n">
-        <v>9.047233333333331</v>
+        <v>9.106666666666667</v>
       </c>
       <c r="P65" t="n">
-        <v>8.46563358603805</v>
+        <v>8.4850414593698</v>
       </c>
       <c r="Q65" t="n">
-        <v>5.050329971423818</v>
+        <v>5.173333333333333</v>
       </c>
       <c r="R65" t="n">
-        <v>11.84001926406926</v>
+        <v>12.12</v>
       </c>
       <c r="S65" t="n">
-        <v>6.705809188305691</v>
+        <v>6.724245439469319</v>
       </c>
       <c r="T65" t="n">
-        <v>3.989452473452472</v>
+        <v>4.026666666666667</v>
       </c>
       <c r="U65" t="n">
-        <v>9.719971332371331</v>
+        <v>9.973333333333334</v>
       </c>
       <c r="V65" t="n">
-        <v>3.875618839939425</v>
+        <v>3.841260364842447</v>
       </c>
       <c r="W65" t="n">
-        <v>2.00421483456848</v>
+        <v>2.026666666666667</v>
       </c>
       <c r="X65" t="n">
-        <v>5.852481496421198</v>
+        <v>5.853333333333335</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.8986198194872462</v>
+        <v>0.8547263681592027</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.1505181433706081</v>
+        <v>0.05333333333333333</v>
       </c>
       <c r="AA65" t="n">
-        <v>1.831847243512371</v>
+        <v>1.799999999999999</v>
       </c>
     </row>
     <row r="66">
@@ -5893,76 +5893,76 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7653980099502475</v>
+        <v>0.8034494195688215</v>
       </c>
       <c r="E66" t="n">
-        <v>0.018</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>1.786399999999998</v>
+        <v>1.853333333333332</v>
       </c>
       <c r="G66" t="n">
-        <v>3.81473963515754</v>
+        <v>3.830646766169144</v>
       </c>
       <c r="H66" t="n">
-        <v>1.737999999999999</v>
+        <v>1.766666666666666</v>
       </c>
       <c r="I66" t="n">
-        <v>6.510781481481485</v>
+        <v>6.566666666666666</v>
       </c>
       <c r="J66" t="n">
-        <v>5.022584137642335</v>
+        <v>4.987794361525692</v>
       </c>
       <c r="K66" t="n">
-        <v>2.6285</v>
+        <v>2.713333333333332</v>
       </c>
       <c r="L66" t="n">
-        <v>7.922653707403702</v>
+        <v>8.000000000000005</v>
       </c>
       <c r="M66" t="n">
-        <v>5.042864812826085</v>
+        <v>5.00918739635157</v>
       </c>
       <c r="N66" t="n">
-        <v>2.751684049284048</v>
+        <v>2.74</v>
       </c>
       <c r="O66" t="n">
-        <v>7.684021851858152</v>
+        <v>7.593333333333335</v>
       </c>
       <c r="P66" t="n">
-        <v>4.568044776119391</v>
+        <v>4.565605306799319</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.551229240693946</v>
+        <v>2.493333333333333</v>
       </c>
       <c r="R66" t="n">
-        <v>6.988833333333343</v>
+        <v>6.666666666666665</v>
       </c>
       <c r="S66" t="n">
-        <v>3.714531532108899</v>
+        <v>3.65655058043117</v>
       </c>
       <c r="T66" t="n">
-        <v>1.82204867724868</v>
+        <v>1.859999999999999</v>
       </c>
       <c r="U66" t="n">
-        <v>5.989902187910706</v>
+        <v>5.939999999999997</v>
       </c>
       <c r="V66" t="n">
-        <v>2.319335428211098</v>
+        <v>2.31442786069651</v>
       </c>
       <c r="W66" t="n">
-        <v>0.8989005651792695</v>
+        <v>0.9933333333333334</v>
       </c>
       <c r="X66" t="n">
-        <v>3.902096088343164</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.5337447335458083</v>
+        <v>0.535389718076284</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.001452925671531912</v>
+        <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>1.282305615966504</v>
+        <v>1.453333333333333</v>
       </c>
     </row>
     <row r="67">
@@ -5985,67 +5985,67 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>2.401710116086231</v>
+        <v>2.377313432835816</v>
       </c>
       <c r="H67" t="n">
-        <v>1.032</v>
+        <v>0.9733333333333335</v>
       </c>
       <c r="I67" t="n">
-        <v>4.05513015873016</v>
+        <v>4.046666666666666</v>
       </c>
       <c r="J67" t="n">
-        <v>4.56865868277658</v>
+        <v>4.659336650082905</v>
       </c>
       <c r="K67" t="n">
-        <v>2.244366666666664</v>
+        <v>2.273333333333334</v>
       </c>
       <c r="L67" t="n">
-        <v>7.348014285714289</v>
+        <v>7.49333333333333</v>
       </c>
       <c r="M67" t="n">
-        <v>5.111460804969158</v>
+        <v>5.207064676616906</v>
       </c>
       <c r="N67" t="n">
-        <v>2.920798889998891</v>
+        <v>3.053333333333333</v>
       </c>
       <c r="O67" t="n">
-        <v>7.892208545719843</v>
+        <v>7.919999999999997</v>
       </c>
       <c r="P67" t="n">
-        <v>4.833746489773343</v>
+        <v>4.872338308457699</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.66227293053068</v>
+        <v>2.706666666666665</v>
       </c>
       <c r="R67" t="n">
-        <v>7.557211038961031</v>
+        <v>7.66666666666667</v>
       </c>
       <c r="S67" t="n">
-        <v>3.926781173497584</v>
+        <v>3.942222222222214</v>
       </c>
       <c r="T67" t="n">
-        <v>2.023988143338143</v>
+        <v>2.026666666666667</v>
       </c>
       <c r="U67" t="n">
-        <v>6.127883392046557</v>
+        <v>6.126666666666664</v>
       </c>
       <c r="V67" t="n">
-        <v>2.51969141212573</v>
+        <v>2.520232172470964</v>
       </c>
       <c r="W67" t="n">
-        <v>1.20448041563064</v>
+        <v>1.213333333333333</v>
       </c>
       <c r="X67" t="n">
-        <v>4.212803846285333</v>
+        <v>4.213333333333334</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.6013422289802466</v>
+        <v>0.6093864013266994</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.001452925671531912</v>
+        <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>1.365733202960325</v>
+        <v>1.426666666666667</v>
       </c>
     </row>
     <row r="68">
@@ -6068,67 +6068,67 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.2423755960457442</v>
+        <v>0.261492537313432</v>
       </c>
       <c r="H68" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.8034660894660876</v>
+        <v>0.826666666666667</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9367610213722146</v>
+        <v>0.9534991708126029</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2008261405261403</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="L68" t="n">
-        <v>1.915370057720059</v>
+        <v>1.846666666666666</v>
       </c>
       <c r="M68" t="n">
-        <v>1.271978938640131</v>
+        <v>1.280729684908789</v>
       </c>
       <c r="N68" t="n">
-        <v>0.3656268398268399</v>
+        <v>0.3933333333333335</v>
       </c>
       <c r="O68" t="n">
-        <v>2.493160106560107</v>
+        <v>2.44</v>
       </c>
       <c r="P68" t="n">
-        <v>1.445312827636707</v>
+        <v>1.446666666666666</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.4028047112358662</v>
+        <v>0.4133333333333335</v>
       </c>
       <c r="R68" t="n">
-        <v>3.041692490842489</v>
+        <v>3.086666666666667</v>
       </c>
       <c r="S68" t="n">
-        <v>1.385901465091017</v>
+        <v>1.414063018242123</v>
       </c>
       <c r="T68" t="n">
-        <v>0.3491555555555551</v>
+        <v>0.3666666666666668</v>
       </c>
       <c r="U68" t="n">
-        <v>2.799451851851853</v>
+        <v>2.9</v>
       </c>
       <c r="V68" t="n">
-        <v>0.9932709581940316</v>
+        <v>0.9986069651741277</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1997948717948713</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="X68" t="n">
-        <v>1.993686085027804</v>
+        <v>2</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.2587923057180512</v>
+        <v>0.2529684908789379</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.00887406150702672</v>
+        <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.8015445762153013</v>
+        <v>0.8000000000000004</v>
       </c>
     </row>
     <row r="69">
@@ -6151,67 +6151,67 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>2.657999999999983</v>
+        <v>2.637611940298493</v>
       </c>
       <c r="H69" t="n">
-        <v>1.085000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I69" t="n">
-        <v>4.498666666666677</v>
+        <v>4.459999999999999</v>
       </c>
       <c r="J69" t="n">
-        <v>9.313601141133853</v>
+        <v>9.4559535655058</v>
       </c>
       <c r="K69" t="n">
-        <v>5.932940296177253</v>
+        <v>6.073333333333331</v>
       </c>
       <c r="L69" t="n">
-        <v>13.06580288665284</v>
+        <v>13.62</v>
       </c>
       <c r="M69" t="n">
-        <v>8.645223781822418</v>
+        <v>8.509121061359862</v>
       </c>
       <c r="N69" t="n">
-        <v>5.483264468864467</v>
+        <v>5.493333333333333</v>
       </c>
       <c r="O69" t="n">
-        <v>12.06414875696566</v>
+        <v>12.17333333333334</v>
       </c>
       <c r="P69" t="n">
-        <v>6.492842898063787</v>
+        <v>6.436650082918733</v>
       </c>
       <c r="Q69" t="n">
-        <v>3.913256004716587</v>
+        <v>3.799999999999998</v>
       </c>
       <c r="R69" t="n">
-        <v>9.240265437993383</v>
+        <v>9.093333333333332</v>
       </c>
       <c r="S69" t="n">
-        <v>4.686425134033084</v>
+        <v>4.661260364842447</v>
       </c>
       <c r="T69" t="n">
-        <v>2.542374392056743</v>
+        <v>2.420000000000001</v>
       </c>
       <c r="U69" t="n">
-        <v>6.773253781583628</v>
+        <v>6.859999999999999</v>
       </c>
       <c r="V69" t="n">
-        <v>2.657704690831549</v>
+        <v>2.645505804311766</v>
       </c>
       <c r="W69" t="n">
-        <v>1.081187894413906</v>
+        <v>1.026666666666667</v>
       </c>
       <c r="X69" t="n">
-        <v>4.373064898989897</v>
+        <v>4.380000000000002</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.620564675208704</v>
+        <v>0.6401658374792691</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.01939395302844125</v>
+        <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>1.472612427391845</v>
+        <v>1.506666666666667</v>
       </c>
     </row>
     <row r="70">
@@ -6243,58 +6243,58 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.6595946458185257</v>
+        <v>0.5931674958540619</v>
       </c>
       <c r="K70" t="n">
-        <v>0.009246031746031747</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>1.647228066378067</v>
+        <v>1.486666666666667</v>
       </c>
       <c r="M70" t="n">
-        <v>1.164448329779671</v>
+        <v>1.154892205638473</v>
       </c>
       <c r="N70" t="n">
-        <v>0.1806268398268399</v>
+        <v>0.1933333333333334</v>
       </c>
       <c r="O70" t="n">
-        <v>2.486785930735931</v>
+        <v>2.359999999999999</v>
       </c>
       <c r="P70" t="n">
-        <v>1.320795356550579</v>
+        <v>1.308059701492536</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.4072809017120567</v>
+        <v>0.3933333333333335</v>
       </c>
       <c r="R70" t="n">
-        <v>2.793792929292933</v>
+        <v>2.753333333333332</v>
       </c>
       <c r="S70" t="n">
-        <v>1.391589759991253</v>
+        <v>1.394162520729683</v>
       </c>
       <c r="T70" t="n">
-        <v>0.3986666666666657</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="U70" t="n">
-        <v>2.640130769230772</v>
+        <v>2.64</v>
       </c>
       <c r="V70" t="n">
-        <v>0.9787250201196775</v>
+        <v>1.043615257048092</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1618621341621339</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="X70" t="n">
-        <v>2.103029951335213</v>
+        <v>2.160000000000001</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.273147649020409</v>
+        <v>0.2912437810945264</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.002121323121323121</v>
+        <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.7931002095797585</v>
+        <v>0.9133333333333334</v>
       </c>
     </row>
     <row r="71">
@@ -6335,49 +6335,49 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>1.519557213930349</v>
+        <v>1.504709784411277</v>
       </c>
       <c r="N71" t="n">
-        <v>0.4319999999999997</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="O71" t="n">
-        <v>2.785533333333336</v>
+        <v>2.786666666666666</v>
       </c>
       <c r="P71" t="n">
-        <v>3.043625207296843</v>
+        <v>3.020729684908783</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.379904761904762</v>
+        <v>1.373333333333333</v>
       </c>
       <c r="R71" t="n">
-        <v>5.282226190476187</v>
+        <v>5.246666666666666</v>
       </c>
       <c r="S71" t="n">
-        <v>3.366692007494982</v>
+        <v>3.379867330016578</v>
       </c>
       <c r="T71" t="n">
-        <v>1.721398789904055</v>
+        <v>1.759999999999999</v>
       </c>
       <c r="U71" t="n">
-        <v>5.531132227032223</v>
+        <v>5.626666666666666</v>
       </c>
       <c r="V71" t="n">
-        <v>2.425951243781087</v>
+        <v>2.430746268656711</v>
       </c>
       <c r="W71" t="n">
-        <v>0.9870003565346277</v>
+        <v>1.046666666666666</v>
       </c>
       <c r="X71" t="n">
-        <v>4.176945697577271</v>
+        <v>4.153333333333334</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.6544688225538963</v>
+        <v>0.6540630182421222</v>
       </c>
       <c r="Z71" t="n">
         <v>0</v>
       </c>
       <c r="AA71" t="n">
-        <v>1.461988694638696</v>
+        <v>1.473333333333333</v>
       </c>
     </row>
     <row r="72">
@@ -6409,58 +6409,58 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.567814922501488</v>
+        <v>1.476285240464343</v>
       </c>
       <c r="K72" t="n">
-        <v>0.4376555555555551</v>
+        <v>0.3933333333333335</v>
       </c>
       <c r="L72" t="n">
-        <v>3.154238888888888</v>
+        <v>2.946666666666667</v>
       </c>
       <c r="M72" t="n">
-        <v>3.157196429109851</v>
+        <v>3.068789386401316</v>
       </c>
       <c r="N72" t="n">
-        <v>1.482226262626263</v>
+        <v>1.393333333333333</v>
       </c>
       <c r="O72" t="n">
-        <v>5.296178571428569</v>
+        <v>5.26</v>
       </c>
       <c r="P72" t="n">
-        <v>3.708069815699782</v>
+        <v>3.625538971807623</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.806159836585842</v>
+        <v>1.886666666666666</v>
       </c>
       <c r="R72" t="n">
-        <v>5.97724504939505</v>
+        <v>5.706666666666664</v>
       </c>
       <c r="S72" t="n">
-        <v>3.449760044506802</v>
+        <v>3.458308457711431</v>
       </c>
       <c r="T72" t="n">
-        <v>1.518605763914073</v>
+        <v>1.586666666666667</v>
       </c>
       <c r="U72" t="n">
-        <v>5.835507936507947</v>
+        <v>5.613333333333331</v>
       </c>
       <c r="V72" t="n">
-        <v>2.360143007186283</v>
+        <v>2.342653399668321</v>
       </c>
       <c r="W72" t="n">
-        <v>1.15030226070226</v>
+        <v>1.12</v>
       </c>
       <c r="X72" t="n">
-        <v>3.849709523809526</v>
+        <v>3.753333333333332</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.6286406301824207</v>
+        <v>0.6242122719734653</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.002121323121323121</v>
+        <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>1.374046836428316</v>
+        <v>1.373333333333333</v>
       </c>
     </row>
   </sheetData>
